--- a/data/hotels_by_city/Denver/Denver_shard_78.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_78.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d120076-Reviews-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Lakewood-South.h41068.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,2167 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r594042852-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>120076</t>
+  </si>
+  <si>
+    <t>594042852</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>One of the best</t>
+  </si>
+  <si>
+    <t>One of the best hotels I’ve stayed in with amazing rates customer service is amazing rooms are well put together plus in one of the better spots in the city, and all out just a good experience definitely will be coming back for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>One of the best hotels I’ve stayed in with amazing rates customer service is amazing rooms are well put together plus in one of the better spots in the city, and all out just a good experience definitely will be coming back for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r587855650-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>587855650</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed there for about 14 days nice room great staff Lisa is wonderful. We travel a lot on business and we will definitely be staying there again. It is a very busy location so definitely book in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there for about 14 days nice room great staff Lisa is wonderful. We travel a lot on business and we will definitely be staying there again. It is a very busy location so definitely book in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r585998593-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>585998593</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Dead bugs, Lots of drugs, and a very active night life, oh my!!!</t>
+  </si>
+  <si>
+    <t>The one in Lakewood Colorado is less than desirable. I definitely will not be back....EVER!! Here you are not a first priority in any way. They take your money and forget you exist. Reading previous comments from guests I wonder if they even stayed at this location. No housekeeping. No real amenities. No clean towels in 8 days. I had to change my own bedding, towels, and take out my own garbage. I was told to leave linens in room by management and assured a housekeeper would pick up the NEXT day. 8 days later still no sign of housekeeping. Also, had to go to the main office to request TOILET paper. Dead bugs on the floor and dried blood in the shower stall. Water damage above fridge. Front desk clerks rude with no social skills. Smells of marijuana and meth fill the halls daily. Fire and police department there on a daily basis. Beds are hard as a rock and linens are rough and scratchy. Bring your own bedding for comfort. Breakfast is muffins and coffee nothing special. They ration out dishes and cookware and when you call to request these items, no one answers. People vacuum at midnight. People have sex waking you up at 2:30 in the morning because their headboard is hitting your wall and shaking your bed. This happened 2 nights in a row. Strange, shady people beating on your door all hours of the...The one in Lakewood Colorado is less than desirable. I definitely will not be back....EVER!! Here you are not a first priority in any way. They take your money and forget you exist. Reading previous comments from guests I wonder if they even stayed at this location. No housekeeping. No real amenities. No clean towels in 8 days. I had to change my own bedding, towels, and take out my own garbage. I was told to leave linens in room by management and assured a housekeeper would pick up the NEXT day. 8 days later still no sign of housekeeping. Also, had to go to the main office to request TOILET paper. Dead bugs on the floor and dried blood in the shower stall. Water damage above fridge. Front desk clerks rude with no social skills. Smells of marijuana and meth fill the halls daily. Fire and police department there on a daily basis. Beds are hard as a rock and linens are rough and scratchy. Bring your own bedding for comfort. Breakfast is muffins and coffee nothing special. They ration out dishes and cookware and when you call to request these items, no one answers. People vacuum at midnight. People have sex waking you up at 2:30 in the morning because their headboard is hitting your wall and shaking your bed. This happened 2 nights in a row. Strange, shady people beating on your door all hours of the day. Homeless people frequent premises, lock your cars, ALWAYS!! 10 channels that actually work on satellite and WiFi is terrible! I’ve read previous management comments and am tired of seeing apologies and excuses. Your hotel needs serious attention!! FIX IT!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>The one in Lakewood Colorado is less than desirable. I definitely will not be back....EVER!! Here you are not a first priority in any way. They take your money and forget you exist. Reading previous comments from guests I wonder if they even stayed at this location. No housekeeping. No real amenities. No clean towels in 8 days. I had to change my own bedding, towels, and take out my own garbage. I was told to leave linens in room by management and assured a housekeeper would pick up the NEXT day. 8 days later still no sign of housekeeping. Also, had to go to the main office to request TOILET paper. Dead bugs on the floor and dried blood in the shower stall. Water damage above fridge. Front desk clerks rude with no social skills. Smells of marijuana and meth fill the halls daily. Fire and police department there on a daily basis. Beds are hard as a rock and linens are rough and scratchy. Bring your own bedding for comfort. Breakfast is muffins and coffee nothing special. They ration out dishes and cookware and when you call to request these items, no one answers. People vacuum at midnight. People have sex waking you up at 2:30 in the morning because their headboard is hitting your wall and shaking your bed. This happened 2 nights in a row. Strange, shady people beating on your door all hours of the...The one in Lakewood Colorado is less than desirable. I definitely will not be back....EVER!! Here you are not a first priority in any way. They take your money and forget you exist. Reading previous comments from guests I wonder if they even stayed at this location. No housekeeping. No real amenities. No clean towels in 8 days. I had to change my own bedding, towels, and take out my own garbage. I was told to leave linens in room by management and assured a housekeeper would pick up the NEXT day. 8 days later still no sign of housekeeping. Also, had to go to the main office to request TOILET paper. Dead bugs on the floor and dried blood in the shower stall. Water damage above fridge. Front desk clerks rude with no social skills. Smells of marijuana and meth fill the halls daily. Fire and police department there on a daily basis. Beds are hard as a rock and linens are rough and scratchy. Bring your own bedding for comfort. Breakfast is muffins and coffee nothing special. They ration out dishes and cookware and when you call to request these items, no one answers. People vacuum at midnight. People have sex waking you up at 2:30 in the morning because their headboard is hitting your wall and shaking your bed. This happened 2 nights in a row. Strange, shady people beating on your door all hours of the day. Homeless people frequent premises, lock your cars, ALWAYS!! 10 channels that actually work on satellite and WiFi is terrible! I’ve read previous management comments and am tired of seeing apologies and excuses. Your hotel needs serious attention!! FIX IT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r574935225-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>574935225</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Reservations mean nothing!</t>
+  </si>
+  <si>
+    <t>I had a reservation here, credit card guaranteed and arrived after traveling all day to find they did not have the room I had reserved. They had my reservation, but could not give me the 2 full beds only twin beds available. I declined and feel a reservation that is not honored speaks a lot about a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>I had a reservation here, credit card guaranteed and arrived after traveling all day to find they did not have the room I had reserved. They had my reservation, but could not give me the 2 full beds only twin beds available. I declined and feel a reservation that is not honored speaks a lot about a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r573466238-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>573466238</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>Lisa is wonderful! She is very professional and always goes out of her way to make us feel "at home". The place is clean and well maintained. The staff is friendly and helpful as well. They all do a very good job!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2018</t>
+  </si>
+  <si>
+    <t>Lisa is wonderful! She is very professional and always goes out of her way to make us feel "at home". The place is clean and well maintained. The staff is friendly and helpful as well. They all do a very good job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r572535981-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>572535981</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Real!</t>
+  </si>
+  <si>
+    <t>Everything was okay for the most part the front staff was great talking about Lisa she made our accommodations the best she could in the time sequence that we had to work in. The manager Jesse was so so okay he worked around bad situations and try to make things right, housekeeping to do a little better job maintenance guy works his butt off there are a few upgrades and newer equipment that he can work with that would help him overall I guess everything was okay thank you very much!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Everything was okay for the most part the front staff was great talking about Lisa she made our accommodations the best she could in the time sequence that we had to work in. The manager Jesse was so so okay he worked around bad situations and try to make things right, housekeeping to do a little better job maintenance guy works his butt off there are a few upgrades and newer equipment that he can work with that would help him overall I guess everything was okay thank you very much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r565013899-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>565013899</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>Misty never made me feel uncomfortable and was very sweet understanding and accommodating she is a sweetheart and always helps me out with anything I need she definitely makes me feel welcomed and is my favorite keep up the great customer service!! Xoxo "Frenchie":)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Misty never made me feel uncomfortable and was very sweet understanding and accommodating she is a sweetheart and always helps me out with anything I need she definitely makes me feel welcomed and is my favorite keep up the great customer service!! Xoxo "Frenchie":)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r561767695-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>561767695</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>awesome service</t>
+  </si>
+  <si>
+    <t>Scott Thompson was helpful and informative on the maintenance of the kitchen sink. Professional and courteous demeanor and was also quick but not too quick on the service. Will definitely be coming back for another stay. Thanks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Scott Thompson was helpful and informative on the maintenance of the kitchen sink. Professional and courteous demeanor and was also quick but not too quick on the service. Will definitely be coming back for another stay. Thanks!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r561528826-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>561528826</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>A very attentive staff helping me get settled in. Could not ask for a better first experience at a long term stay. Lisa was great working with me to expedite my check-in even before I even got there. Scott was very helpful and quick to take care of the maintenance issues. Excellent work all.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>A very attentive staff helping me get settled in. Could not ask for a better first experience at a long term stay. Lisa was great working with me to expedite my check-in even before I even got there. Scott was very helpful and quick to take care of the maintenance issues. Excellent work all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r559221526-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>559221526</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>WORST STAY EVER!!</t>
+  </si>
+  <si>
+    <t>The staff is rude, didnt get the right room and the rooms are very very dirty. My sheets were not changed prior to occupying the room and the room had not been cleaned. The vent in the bathroom was filled with thick moldy looking dust with almost no air flow. Tried for days to get them to make this right and in the end when they had not I was told it was my fault for staying.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>The staff is rude, didnt get the right room and the rooms are very very dirty. My sheets were not changed prior to occupying the room and the room had not been cleaned. The vent in the bathroom was filled with thick moldy looking dust with almost no air flow. Tried for days to get them to make this right and in the end when they had not I was told it was my fault for staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r552700701-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>552700701</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay for short or long term!</t>
+  </si>
+  <si>
+    <t>I checked in here a few months ago for a short term stay.  My experience here has been great!!  The managers Jessie and Lisa and all the rest of the staff are attentive, professional and very warm and friendly.  Any minor maintenance issues have been handled immediately and the maintenance man is a really nice guy who knows what he is doing!  I turned my short term stay into a long term because I like it here so much.  The price of the room includes cable, wifi, breakfast, and house cleaning!!  I feel like I always have help if I need it because there is staff here 24 hrs.  I would recommend this hotel to anyone!  I also have a view of the beautiful foothills and the sunset!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>I checked in here a few months ago for a short term stay.  My experience here has been great!!  The managers Jessie and Lisa and all the rest of the staff are attentive, professional and very warm and friendly.  Any minor maintenance issues have been handled immediately and the maintenance man is a really nice guy who knows what he is doing!  I turned my short term stay into a long term because I like it here so much.  The price of the room includes cable, wifi, breakfast, and house cleaning!!  I feel like I always have help if I need it because there is staff here 24 hrs.  I would recommend this hotel to anyone!  I also have a view of the beautiful foothills and the sunset!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r552615571-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>552615571</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Amazing staff !!</t>
+  </si>
+  <si>
+    <t>My elderly mother is staying at the Lakewood Extended stay and she has had a fabulous stay. I do not have to worry about her being safe or well taken care of. The staff are amazing -helpful, friendly, and dedicated. One of the staff members, Scott, has gone out of his way to help.  He ensures that she has working items and that the sidewalks and elevator are kept clean despite frequent use.  A new manager took over a few months ago and he has really cleaned the place up and increased customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>My elderly mother is staying at the Lakewood Extended stay and she has had a fabulous stay. I do not have to worry about her being safe or well taken care of. The staff are amazing -helpful, friendly, and dedicated. One of the staff members, Scott, has gone out of his way to help.  He ensures that she has working items and that the sidewalks and elevator are kept clean despite frequent use.  A new manager took over a few months ago and he has really cleaned the place up and increased customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r551644179-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>551644179</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Horrible service hotel</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone. Horrible service and I believe they have a booking and billing issue and are unwilling to take proper steps to do the right thing by their guests and figure out or fix a mistake made by them.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone. Horrible service and I believe they have a booking and billing issue and are unwilling to take proper steps to do the right thing by their guests and figure out or fix a mistake made by them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r544832890-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>544832890</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay!!!</t>
+  </si>
+  <si>
+    <t>My experience at the Extended Stay America - Lakewood, CO was excellent in every way! The manager &amp; office staff were very helpful, accommodating and congenial. The maintenance team was prompt and kept the site very clean. All of the housekeeping staff was very nice and kept my room clean and sparkling!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>My experience at the Extended Stay America - Lakewood, CO was excellent in every way! The manager &amp; office staff were very helpful, accommodating and congenial. The maintenance team was prompt and kept the site very clean. All of the housekeeping staff was very nice and kept my room clean and sparkling!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r541672250-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>541672250</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>1 star is too high. DO NOT STAY</t>
+  </si>
+  <si>
+    <t>I cannot express how incredibly dissatisfied I was with my "stay" here. I will first say, the woman at the front desk was wonderful, full of information and recommendations. We checked in and everything changed. There was a huge bug on the floor, cigarette burns on the comforter, stains on the bed skirt, and a bee hive right outside the front door. We immediately called Expedia to get out of our reservation. They cancelled, confirmed there'd be no charge, and we moved to another hotel. After that everything got worse. This hotel made it impossible to get a refund. It took a month of appealing to the manager to get my money back. After all was said and done, Expedia refunded me themselves, Extended Stay got to keep their money. Bottom line - this room was absolutely disgusting and the customer service I received after leaving was abysmal. DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>I cannot express how incredibly dissatisfied I was with my "stay" here. I will first say, the woman at the front desk was wonderful, full of information and recommendations. We checked in and everything changed. There was a huge bug on the floor, cigarette burns on the comforter, stains on the bed skirt, and a bee hive right outside the front door. We immediately called Expedia to get out of our reservation. They cancelled, confirmed there'd be no charge, and we moved to another hotel. After that everything got worse. This hotel made it impossible to get a refund. It took a month of appealing to the manager to get my money back. After all was said and done, Expedia refunded me themselves, Extended Stay got to keep their money. Bottom line - this room was absolutely disgusting and the customer service I received after leaving was abysmal. DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r539141629-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>539141629</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Kind of dissapointed</t>
+  </si>
+  <si>
+    <t>Caught the night office lady in the back of the hotel smoking weed on my way to the office to ask for a couple more items for me room. The room itself was nice,  comfortable bed,  but they didn't accommodate my requests when I booked the room online. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Caught the night office lady in the back of the hotel smoking weed on my way to the office to ask for a couple more items for me room. The room itself was nice,  comfortable bed,  but they didn't accommodate my requests when I booked the room online. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r508714310-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>508714310</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>This was a great hotel, I would change the breakfast to a hot breakfast. The kitchen is nice and fridge space is useful. I stayed 5 days and would have liked a room check at least once. Overall was a nice trip MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>This was a great hotel, I would change the breakfast to a hot breakfast. The kitchen is nice and fridge space is useful. I stayed 5 days and would have liked a room check at least once. Overall was a nice trip More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r502025787-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>502025787</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>I went to check into your property on 7/14. Your front desk 2nd shift person was very nice. She checked me into room 108. Upon entering the room I found food on the carpet(shredded cheese) the Bath room sink hadn't been cleaned from the previous guest. The floors were sticky. So I went back to the desk and I assume the big muscles guy who's very good looking is the GM of the property kindly gave me another room on the second floor, room 226. But said the carpets were just shampooed they may be damp. I was fine with that, get up to room, again a dirty bathroom, food residue on the table beside the TV. Burn marks in the chairs, food and hair debris in the freezer. Food debris on top of the refrigerator. By this time I had enough I called down and said this wasn't acceptable and they refunded my money and I left the property. Now I was just reading a review from the 7th of July and the GM states there working to fix the problems. Here's the problem from one GM to another.. You are the problem, your not doing room checks your not overseeing your housekeeping staff, or training them properly. I understand your an extended stay property which is fine but there's no excuse for selling half par rooms. NONE.. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>I went to check into your property on 7/14. Your front desk 2nd shift person was very nice. She checked me into room 108. Upon entering the room I found food on the carpet(shredded cheese) the Bath room sink hadn't been cleaned from the previous guest. The floors were sticky. So I went back to the desk and I assume the big muscles guy who's very good looking is the GM of the property kindly gave me another room on the second floor, room 226. But said the carpets were just shampooed they may be damp. I was fine with that, get up to room, again a dirty bathroom, food residue on the table beside the TV. Burn marks in the chairs, food and hair debris in the freezer. Food debris on top of the refrigerator. By this time I had enough I called down and said this wasn't acceptable and they refunded my money and I left the property. Now I was just reading a review from the 7th of July and the GM states there working to fix the problems. Here's the problem from one GM to another.. You are the problem, your not doing room checks your not overseeing your housekeeping staff, or training them properly. I understand your an extended stay property which is fine but there's no excuse for selling half par rooms. NONE.. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r498255131-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>498255131</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience Of My Life</t>
+  </si>
+  <si>
+    <t>My non-smoking rooom reeked of smoke and therefore I left with my clothes smelling the same. I found a huge bug in my bathtub. The staff was also completely impossible to get ahold of. I was also charged more than I should have been at check in. Don't stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>My non-smoking rooom reeked of smoke and therefore I left with my clothes smelling the same. I found a huge bug in my bathtub. The staff was also completely impossible to get ahold of. I was also charged more than I should have been at check in. Don't stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r497045609-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>497045609</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>On edge of two stars</t>
+  </si>
+  <si>
+    <t>Abandoned cars everywhere , they charge for maid service , staff is great But the hotel is not what it used to be No ice machine , weak breakfast I just Don't see myself returning it's become Motel so beware MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Abandoned cars everywhere , they charge for maid service , staff is great But the hotel is not what it used to be No ice machine , weak breakfast I just Don't see myself returning it's become Motel so beware More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r495876446-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>495876446</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Overpriced 1 star</t>
+  </si>
+  <si>
+    <t>It's called extended stay but we couldn't wait to leave. Full disclosure we did check in early. Room stunk of smoke even though we requested non smoking online. The floor in the kitchen and bathroom were sticky and unclean. Breakfast consisted of packaged muffins and granola bars with choices of light or dark coffee. I wouldn't ever recommend this property to anyone MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>It's called extended stay but we couldn't wait to leave. Full disclosure we did check in early. Room stunk of smoke even though we requested non smoking online. The floor in the kitchen and bathroom were sticky and unclean. Breakfast consisted of packaged muffins and granola bars with choices of light or dark coffee. I wouldn't ever recommend this property to anyone More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r483407804-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>483407804</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Negative stars!! DISGUSTING DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>Room was filthy, beds were slept in, dirty towels on the floor, sink dirty. Hands down the worst hotel i have EVER been to.  We were scared to sleep here, the only reason we did not leave was because it was after midnight and needed to sleep before our 4 hour drive.  we had landed in denver and couldn't drive safely until we slept....we would've been safer in the car!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Room was filthy, beds were slept in, dirty towels on the floor, sink dirty. Hands down the worst hotel i have EVER been to.  We were scared to sleep here, the only reason we did not leave was because it was after midnight and needed to sleep before our 4 hour drive.  we had landed in denver and couldn't drive safely until we slept....we would've been safer in the car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r482102042-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>482102042</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Suites yes,scary and dirty yes</t>
+  </si>
+  <si>
+    <t>Very nice people at the front desk. They kept asking me how I liked my stay? I said okay and they said just okay? Really? The studio Suite had a little kitchen But the rooms were dark and dreary. The elevator was downright filthy so that should have been my first clue to get out of there. My room had black streaks on the bathroom door and shower which was just plain dirt. There were stains all over the carpet. You might want to check other places on the same block before you check in here.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2017</t>
+  </si>
+  <si>
+    <t>Very nice people at the front desk. They kept asking me how I liked my stay? I said okay and they said just okay? Really? The studio Suite had a little kitchen But the rooms were dark and dreary. The elevator was downright filthy so that should have been my first clue to get out of there. My room had black streaks on the bathroom door and shower which was just plain dirt. There were stains all over the carpet. You might want to check other places on the same block before you check in here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r479802012-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>479802012</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Gratitude and praise for all the Customer Service Staff Members</t>
+  </si>
+  <si>
+    <t>Just wanted to show my Gratitude and praise for all the Customer Service Staff Members at this Location. They are all nice to talk to and, very helpfull with any hotel services they can provide. Anna, Moses (Moi), Elizabeth, Kedg, Paula, Jane, Katie, and all the good people that reside at the Extended Stay South Lakewood.CO.They all do an exceptional job of keeping things running smooth. I always enjoy my visit with Extended Stay America.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Just wanted to show my Gratitude and praise for all the Customer Service Staff Members at this Location. They are all nice to talk to and, very helpfull with any hotel services they can provide. Anna, Moses (Moi), Elizabeth, Kedg, Paula, Jane, Katie, and all the good people that reside at the Extended Stay South Lakewood.CO.They all do an exceptional job of keeping things running smooth. I always enjoy my visit with Extended Stay America.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r457239671-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>457239671</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Ick . We saw urine stained stairwells with lots of forgotten garbage.</t>
+  </si>
+  <si>
+    <t>Avoid if possible.  The pictures on their site look okay...but it really isn't it..  The staff is nice - the only plus. This really isn't a hotel - more of a short term studio rental building. Try any other suite hotels than this one. They give themselves 4 stars...but we give this a negative 1 except for the staff  - we give them 4 out of 5 .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r440948494-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>440948494</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful throughout our stay here at extended stay. After reading other reviews was nervous however glad we came! Rooms were clean and was givin well taken care of dishishs for our kitchen! Thanks guysMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded December 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2016</t>
+  </si>
+  <si>
+    <t>The staff was very nice and helpful throughout our stay here at extended stay. After reading other reviews was nervous however glad we came! Rooms were clean and was givin well taken care of dishishs for our kitchen! Thanks guysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r435407314-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>435407314</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>The best stay</t>
+  </si>
+  <si>
+    <t>The service at Lakewood SW in Denver has been exceptionally good.I have been staying here for over a year now and found this facility very clean and maintained all the time. My extreme thanks to the staff working there mainly, Moses,Bri,Angela,Anna,Paula,Shawna,Brandy and all the other helpful people who have made my stay here feel like home. Thank you. Sincerely. Karl Autry Rm #333.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>The service at Lakewood SW in Denver has been exceptionally good.I have been staying here for over a year now and found this facility very clean and maintained all the time. My extreme thanks to the staff working there mainly, Moses,Bri,Angela,Anna,Paula,Shawna,Brandy and all the other helpful people who have made my stay here feel like home. Thank you. Sincerely. Karl Autry Rm #333.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r428728825-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>428728825</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t>Door was terrible to open, Room had strong odor of old cooking, carpets badly stained, furniture was old and broken down with stains in all of the drawers, dusty, kitchen table was dirty, appliances were old and looked worn out, bathroom floor was dirty, mattress was not clean and there was no mattress pads between it and a very thin sheet. Checked out minutes after arriving.  Only good thing I have to say is that the staff was friendly and they gave me a refund.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r424259916-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>424259916</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>found bed bugs</t>
+  </si>
+  <si>
+    <t>We found bed bugs in the first room. They just moved us didn't even really say sorry no discounts nothing. by far the worse motel stay I've ever had. We had to take are clothes and bags into get steam washed. one would think they would at least offer to pay for that.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r407074800-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>407074800</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Do yourself a favor and spend a little more to stay someplace else</t>
+  </si>
+  <si>
+    <t>1 Month stay from July 14-August 15, 2016: Terrible experience. 
+The rooms (I had two during my stay due to non-working kitchen range) were very dirty-I had to clean (bleach) both rooms and wash all of the bedding and the shower curtains before using them. Both rooms: there was hair in the shower, on the shower curtain, inside the fridge and freezer, all over the bedding and pillows. There was also makeup smudged on the pillows. 1 room: There were splatters on the kitchen counters/backsplash, the door, two walls and the TV.
+It took 4 trips to the office to get the kitchen/cooking supplies. Each time they would tell me that "it's in the wash" and give me one or two things and tell me that they would deliver the rest to the room. Nothing was ever delivered. I ended up getting a bunch of stuff from Wal-Mart.
+There were so many broken things in the room: the alarm clock that was broken in the "on" position that went of at midnight each night; the tub which was "repaired" with tape that came up after a couple showers and kept getting stuck to my feet (I kept putting it back down to try to prevent leaks); the range didn't work in room 1; the a/c barely worked in room 2; the microwave in each room didn't work properly (half of the food would be cooked while the other half was...1 Month stay from July 14-August 15, 2016: Terrible experience. The rooms (I had two during my stay due to non-working kitchen range) were very dirty-I had to clean (bleach) both rooms and wash all of the bedding and the shower curtains before using them. Both rooms: there was hair in the shower, on the shower curtain, inside the fridge and freezer, all over the bedding and pillows. There was also makeup smudged on the pillows. 1 room: There were splatters on the kitchen counters/backsplash, the door, two walls and the TV.It took 4 trips to the office to get the kitchen/cooking supplies. Each time they would tell me that "it's in the wash" and give me one or two things and tell me that they would deliver the rest to the room. Nothing was ever delivered. I ended up getting a bunch of stuff from Wal-Mart.There were so many broken things in the room: the alarm clock that was broken in the "on" position that went of at midnight each night; the tub which was "repaired" with tape that came up after a couple showers and kept getting stuck to my feet (I kept putting it back down to try to prevent leaks); the range didn't work in room 1; the a/c barely worked in room 2; the microwave in each room didn't work properly (half of the food would be cooked while the other half was still partially frozen; burned hole through popcorn bag but the popcorn was barely popped).The ONLY saving grace was a single maintenance employee (his name is Moi) who really stepped up to try to make everything right. He's the one who ended up putting me in a room where things worked *and* delivered the missing kitchen items that I'd been requesting. The hotel has free Wi-Fi but it was extremely slow and I was regularly getting kicked off of it. So I upgraded the connection for a fee ($20 or $25 for a full month) and that was marginally faster but I kept getting kicked off of that too.This is a very convenient location but there are several hotels right next to this one. I wish I had spent the extra money to stay someplace more comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>1 Month stay from July 14-August 15, 2016: Terrible experience. 
+The rooms (I had two during my stay due to non-working kitchen range) were very dirty-I had to clean (bleach) both rooms and wash all of the bedding and the shower curtains before using them. Both rooms: there was hair in the shower, on the shower curtain, inside the fridge and freezer, all over the bedding and pillows. There was also makeup smudged on the pillows. 1 room: There were splatters on the kitchen counters/backsplash, the door, two walls and the TV.
+It took 4 trips to the office to get the kitchen/cooking supplies. Each time they would tell me that "it's in the wash" and give me one or two things and tell me that they would deliver the rest to the room. Nothing was ever delivered. I ended up getting a bunch of stuff from Wal-Mart.
+There were so many broken things in the room: the alarm clock that was broken in the "on" position that went of at midnight each night; the tub which was "repaired" with tape that came up after a couple showers and kept getting stuck to my feet (I kept putting it back down to try to prevent leaks); the range didn't work in room 1; the a/c barely worked in room 2; the microwave in each room didn't work properly (half of the food would be cooked while the other half was...1 Month stay from July 14-August 15, 2016: Terrible experience. The rooms (I had two during my stay due to non-working kitchen range) were very dirty-I had to clean (bleach) both rooms and wash all of the bedding and the shower curtains before using them. Both rooms: there was hair in the shower, on the shower curtain, inside the fridge and freezer, all over the bedding and pillows. There was also makeup smudged on the pillows. 1 room: There were splatters on the kitchen counters/backsplash, the door, two walls and the TV.It took 4 trips to the office to get the kitchen/cooking supplies. Each time they would tell me that "it's in the wash" and give me one or two things and tell me that they would deliver the rest to the room. Nothing was ever delivered. I ended up getting a bunch of stuff from Wal-Mart.There were so many broken things in the room: the alarm clock that was broken in the "on" position that went of at midnight each night; the tub which was "repaired" with tape that came up after a couple showers and kept getting stuck to my feet (I kept putting it back down to try to prevent leaks); the range didn't work in room 1; the a/c barely worked in room 2; the microwave in each room didn't work properly (half of the food would be cooked while the other half was still partially frozen; burned hole through popcorn bag but the popcorn was barely popped).The ONLY saving grace was a single maintenance employee (his name is Moi) who really stepped up to try to make everything right. He's the one who ended up putting me in a room where things worked *and* delivered the missing kitchen items that I'd been requesting. The hotel has free Wi-Fi but it was extremely slow and I was regularly getting kicked off of it. So I upgraded the connection for a fee ($20 or $25 for a full month) and that was marginally faster but I kept getting kicked off of that too.This is a very convenient location but there are several hotels right next to this one. I wish I had spent the extra money to stay someplace more comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r392699645-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>392699645</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>I expected better</t>
+  </si>
+  <si>
+    <t>I stayed for two weeks and I was disappointed by the cleanliness and the resulting room odor. That said, the staff was very friendly and helpful. Firstly, the carpet was heavily stained in many places - simply put, if the stains could not be cleaned it should have been replaced. The room smelled bad which I attributed mainly to the carpet but also perhaps to the cooker hood not venting to the outside (lingering food smells). There were many cigarette burns (on bedside tables, bathroom counter, bathroom floor, carpet) even though it was a non-smoking room. The mattress cover was threadbare and dirty, although the sheets looked relatively clean. The hotel supplied kitchenware (this was a suite with a kitchenette) was woefully inadequate and dirty. There was no dish soap for the first night. No cutting board, mismatching silverware and tableware, no coffee maker or kettle, no cups or mugs - it was extremely basic. If you coming to visit for fun, regrettably, this is probably not the place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for two weeks and I was disappointed by the cleanliness and the resulting room odor. That said, the staff was very friendly and helpful. Firstly, the carpet was heavily stained in many places - simply put, if the stains could not be cleaned it should have been replaced. The room smelled bad which I attributed mainly to the carpet but also perhaps to the cooker hood not venting to the outside (lingering food smells). There were many cigarette burns (on bedside tables, bathroom counter, bathroom floor, carpet) even though it was a non-smoking room. The mattress cover was threadbare and dirty, although the sheets looked relatively clean. The hotel supplied kitchenware (this was a suite with a kitchenette) was woefully inadequate and dirty. There was no dish soap for the first night. No cutting board, mismatching silverware and tableware, no coffee maker or kettle, no cups or mugs - it was extremely basic. If you coming to visit for fun, regrettably, this is probably not the place to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r388560657-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>388560657</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Under New Mismanagement</t>
+  </si>
+  <si>
+    <t>Have stayed here several times in the past but this year things have really gone downhill.  The new carpet on the floor did not make up for the filthy blanket with cigarette holes (in our non-smoking room).  The counter top was badly stained and the shower curtain was crusty in spots.  The air conditioner was so loud that it made sleep impossible until it was turned off.  The recliner was missing (we were told it was being replaced at some future date). The worst excuse ever even for a grab and go breakfast. The only thing that has not deteriorated was the excellent coffee. I rescind my earlier review as things have changed - and not for the better!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Have stayed here several times in the past but this year things have really gone downhill.  The new carpet on the floor did not make up for the filthy blanket with cigarette holes (in our non-smoking room).  The counter top was badly stained and the shower curtain was crusty in spots.  The air conditioner was so loud that it made sleep impossible until it was turned off.  The recliner was missing (we were told it was being replaced at some future date). The worst excuse ever even for a grab and go breakfast. The only thing that has not deteriorated was the excellent coffee. I rescind my earlier review as things have changed - and not for the better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r388127730-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>388127730</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Clean, friendly, with some problems</t>
+  </si>
+  <si>
+    <t>I must start by saying I contacted property about issues and manager will look into those.  We have stayed in this exact room before and we think the property and rooms have gone through some updating. I was pleased with the room, as we needed the kitchen.  It was clean and the bed was comfortable, we had a king bed as we were helping our daughter rehab her condo.  She lives very close to this property, so location was key.  I like the fact that all kitchen items are washed by staff and one must ask for what they want. But It took us 2 days to get kitchen items and then we never received a coffee maker or toaster.  There is coffee in the lobby in the morning or else I would have bought a coffee maker.  My frustration in trying to get basic items made me quit asking for the rest as there was always an excuse.  The ceiling light in the room is an awful florescent that is extremely noisy (it was the last time we stayed there and I complained then).  The air conditioning works but is noisy, we had to turn the volume up on the TV every time it came on.  The day the housekeeper came, she left us 3 clean bath towels and left one of our dirty ones, odd.  You can go to the lobby and exchange your towels but after a...I must start by saying I contacted property about issues and manager will look into those.  We have stayed in this exact room before and we think the property and rooms have gone through some updating. I was pleased with the room, as we needed the kitchen.  It was clean and the bed was comfortable, we had a king bed as we were helping our daughter rehab her condo.  She lives very close to this property, so location was key.  I like the fact that all kitchen items are washed by staff and one must ask for what they want. But It took us 2 days to get kitchen items and then we never received a coffee maker or toaster.  There is coffee in the lobby in the morning or else I would have bought a coffee maker.  My frustration in trying to get basic items made me quit asking for the rest as there was always an excuse.  The ceiling light in the room is an awful florescent that is extremely noisy (it was the last time we stayed there and I complained then).  The air conditioning works but is noisy, we had to turn the volume up on the TV every time it came on.  The day the housekeeper came, she left us 3 clean bath towels and left one of our dirty ones, odd.  You can go to the lobby and exchange your towels but after a 12 hour day of rehab, that trip seems like a long way for one clean towel.  As I said, the manager has responded to me.  I suggested that when one asks for kitchen items and cannot get them, there should be a list and those on the top should have priority to get items as they come back to be cleaned. We will stay there again when we visit our daughter, so I hope to see some changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>I must start by saying I contacted property about issues and manager will look into those.  We have stayed in this exact room before and we think the property and rooms have gone through some updating. I was pleased with the room, as we needed the kitchen.  It was clean and the bed was comfortable, we had a king bed as we were helping our daughter rehab her condo.  She lives very close to this property, so location was key.  I like the fact that all kitchen items are washed by staff and one must ask for what they want. But It took us 2 days to get kitchen items and then we never received a coffee maker or toaster.  There is coffee in the lobby in the morning or else I would have bought a coffee maker.  My frustration in trying to get basic items made me quit asking for the rest as there was always an excuse.  The ceiling light in the room is an awful florescent that is extremely noisy (it was the last time we stayed there and I complained then).  The air conditioning works but is noisy, we had to turn the volume up on the TV every time it came on.  The day the housekeeper came, she left us 3 clean bath towels and left one of our dirty ones, odd.  You can go to the lobby and exchange your towels but after a...I must start by saying I contacted property about issues and manager will look into those.  We have stayed in this exact room before and we think the property and rooms have gone through some updating. I was pleased with the room, as we needed the kitchen.  It was clean and the bed was comfortable, we had a king bed as we were helping our daughter rehab her condo.  She lives very close to this property, so location was key.  I like the fact that all kitchen items are washed by staff and one must ask for what they want. But It took us 2 days to get kitchen items and then we never received a coffee maker or toaster.  There is coffee in the lobby in the morning or else I would have bought a coffee maker.  My frustration in trying to get basic items made me quit asking for the rest as there was always an excuse.  The ceiling light in the room is an awful florescent that is extremely noisy (it was the last time we stayed there and I complained then).  The air conditioning works but is noisy, we had to turn the volume up on the TV every time it came on.  The day the housekeeper came, she left us 3 clean bath towels and left one of our dirty ones, odd.  You can go to the lobby and exchange your towels but after a 12 hour day of rehab, that trip seems like a long way for one clean towel.  As I said, the manager has responded to me.  I suggested that when one asks for kitchen items and cannot get them, there should be a list and those on the top should have priority to get items as they come back to be cleaned. We will stay there again when we visit our daughter, so I hope to see some changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r380274039-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>380274039</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Flea bag hotel -  Mstake to book this hotel- Will report to the Board of Health- dirty room</t>
+  </si>
+  <si>
+    <t>I checked out within 10 min could not stay in this place - dirty room, stained carpet , broken cabinets, no amenities at all - not even a plastic cup! The website painted a lovely modern, spacious room filled with amenities --- NOT AT ALL will report to the board of health. I was in shock!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>I checked out within 10 min could not stay in this place - dirty room, stained carpet , broken cabinets, no amenities at all - not even a plastic cup! The website painted a lovely modern, spacious room filled with amenities --- NOT AT ALL will report to the board of health. I was in shock!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r378598449-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>378598449</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Staff..Low quality  hotel</t>
+  </si>
+  <si>
+    <t>Was there for 4 nights.  I agree with the one reviewer that there was  no clear communication that I would never have housekeeping..not even to replace the towels or provide shampoo.  The walls are paper thin that I was clearly able to hear my neighbors alarm go off at 5 in the morning.  The only real bright side was the staff at the desk.  They were wonderful, but does not make up for the rest of the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Was there for 4 nights.  I agree with the one reviewer that there was  no clear communication that I would never have housekeeping..not even to replace the towels or provide shampoo.  The walls are paper thin that I was clearly able to hear my neighbors alarm go off at 5 in the morning.  The only real bright side was the staff at the desk.  They were wonderful, but does not make up for the rest of the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r371619741-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>371619741</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>2.5 week long stay</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed here for approx 2.5 weeks. We will never return to this property.  Upon check in it was never communicated to us that our room would only be cleaned once every 8 days as a courtesy to us during our stay. Lol. Whenever we needed toilet paper or fresh towels we had to hunt down front desk personnel for them. When they did show up to clean our room after our request to do so, they only made the bed &amp; vacuumed the carpet. The bathroom was not cleaned, the laminate floor was not swept or mopped, the bathroom sink wasn't even wiped down &amp; kitchen counter was left with crumbs on it. I did email a complaint to the general manager and received a response stating that they will use my comments to coach their team to provide better communication of their services in the future. She also advised that if I want to purchase housekeeping services during my stay, I could do so for a nominal fee. After paying almost $600 a week to stay at this place, paying anything additional for services that should be included is absolutely absurd! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>My family &amp; I stayed here for approx 2.5 weeks. We will never return to this property.  Upon check in it was never communicated to us that our room would only be cleaned once every 8 days as a courtesy to us during our stay. Lol. Whenever we needed toilet paper or fresh towels we had to hunt down front desk personnel for them. When they did show up to clean our room after our request to do so, they only made the bed &amp; vacuumed the carpet. The bathroom was not cleaned, the laminate floor was not swept or mopped, the bathroom sink wasn't even wiped down &amp; kitchen counter was left with crumbs on it. I did email a complaint to the general manager and received a response stating that they will use my comments to coach their team to provide better communication of their services in the future. She also advised that if I want to purchase housekeeping services during my stay, I could do so for a nominal fee. After paying almost $600 a week to stay at this place, paying anything additional for services that should be included is absolutely absurd! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r338912210-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>338912210</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>No paradise found here!!</t>
+  </si>
+  <si>
+    <t>GROSS.......DISGUSTING!!!!!!  We were to stay here for 3 weeks. The night we checked in we were ready to move out. The room reeked of smoke and pet urine smell.  The person next door smoked weed which we could smell. We asked to move to another room but they wouldn't let us. We ended up canceling our reservation. The grounds were dirty and disgusting with dog poop on the sidewalk and in the parking lot, cigarette butts all over the ground and in the elevator. The elevator always reeked of smoke and weed and was filthy. The only thing I can say nice about this place was the housekeepers were friendly; however I feel sorry for them to work in conditions as this. Don't waste time or money staying in this place.  If I was able to I would of given this place a zero rating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>GROSS.......DISGUSTING!!!!!!  We were to stay here for 3 weeks. The night we checked in we were ready to move out. The room reeked of smoke and pet urine smell.  The person next door smoked weed which we could smell. We asked to move to another room but they wouldn't let us. We ended up canceling our reservation. The grounds were dirty and disgusting with dog poop on the sidewalk and in the parking lot, cigarette butts all over the ground and in the elevator. The elevator always reeked of smoke and weed and was filthy. The only thing I can say nice about this place was the housekeepers were friendly; however I feel sorry for them to work in conditions as this. Don't waste time or money staying in this place.  If I was able to I would of given this place a zero rating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r333876279-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>333876279</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Great staff like family</t>
+  </si>
+  <si>
+    <t>The staff expecially Bre made my daughter and my self fill like family.   Moi , Shalimar, Reyna, Kathy and all the other staff are the best they are like family and very  friendly.   They go above and beyond for the guest.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r332545998-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>332545998</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel in Lakewood , CO</t>
+  </si>
+  <si>
+    <t>After staying at the Extended Stay in Lakewood, CO I found that it is easily the very BEST hotel for the money and customer service,  I would personally like to Thank all the staff for they're help in customer service,  and I would also like to Thank KATHY she was such a sweetheart and super nice to me everyday. If I needed anything she Always went above and beyond. I have never received customer service like that from any other hotels I have been at. I would highly recommend this Hotel. I would also like to Thank Reyna she was also another sweetheart to me , I needed an extra hour to pay and she had no problem extended that for me. And I thank her for that. If I needed anything or had questions those two were always there to assist me in anyway they can . I appreciate the best customer service they have.  Keep up the Great work girls. An thank you extended stay hotel for all the great work two thumps up and 5***** s  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>After staying at the Extended Stay in Lakewood, CO I found that it is easily the very BEST hotel for the money and customer service,  I would personally like to Thank all the staff for they're help in customer service,  and I would also like to Thank KATHY she was such a sweetheart and super nice to me everyday. If I needed anything she Always went above and beyond. I have never received customer service like that from any other hotels I have been at. I would highly recommend this Hotel. I would also like to Thank Reyna she was also another sweetheart to me , I needed an extra hour to pay and she had no problem extended that for me. And I thank her for that. If I needed anything or had questions those two were always there to assist me in anyway they can . I appreciate the best customer service they have.  Keep up the Great work girls. An thank you extended stay hotel for all the great work two thumps up and 5***** s  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r323193610-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>323193610</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>Best hotel and staff in all my travels!</t>
+  </si>
+  <si>
+    <t>I travel for work all over the U.S and Canada . My hotel stays are anywhere from a month to two years. My Lakewood visit has been almost a year , and I've been lucky enough to have found the best long-term lodging in Colorado. I've been here through a seamless management transition ,and although they were on top of their game before, they've gotten every facet of the hotel experience running with friendly efficiency. Kathy, Jim, and all the new faces in the front of the house are fun, engaging and equipped with local knowledge to help you explore the diverse attractions in the area, as well as downtown Denver. The behind-the-scenes cleaning and maintenance crew has been accommodating and quick to meet all of our crews' requests. If you're coming to stay , come stay with me and the incredible people who have made my stay a genuinely great memory!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>I travel for work all over the U.S and Canada . My hotel stays are anywhere from a month to two years. My Lakewood visit has been almost a year , and I've been lucky enough to have found the best long-term lodging in Colorado. I've been here through a seamless management transition ,and although they were on top of their game before, they've gotten every facet of the hotel experience running with friendly efficiency. Kathy, Jim, and all the new faces in the front of the house are fun, engaging and equipped with local knowledge to help you explore the diverse attractions in the area, as well as downtown Denver. The behind-the-scenes cleaning and maintenance crew has been accommodating and quick to meet all of our crews' requests. If you're coming to stay , come stay with me and the incredible people who have made my stay a genuinely great memory!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r322939146-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>322939146</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>First Class Staff.</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay! I can honestly say, I recieved VIP treatment - everyday. And the breakfast bar is amazing :)  These ladies and gentlemen are a first class staff, for real! I hope this helps. Best service ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay! I can honestly say, I recieved VIP treatment - everyday. And the breakfast bar is amazing :)  These ladies and gentlemen are a first class staff, for real! I hope this helps. Best service ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r322801184-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>322801184</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>friendliness and devotion to service by Cathy and Moses</t>
+  </si>
+  <si>
+    <t>I came here not knowing anything about Extended Stay but needed a place after my wife had told me we need to separate (the very day were out of our house that we had just sold).  I have found Extended Stay to be a totally delightful place to stay, not only because of the ambiance and cleanliness of the rooms but also because of the friendliness and devotion to service by the staff.  Particularly I would like to commend Cathy and Moses for their fine customer oriented service and their friendliness.  Primarily because of this I have decided to stay at least a couple of months while I figure out my next move.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>I came here not knowing anything about Extended Stay but needed a place after my wife had told me we need to separate (the very day were out of our house that we had just sold).  I have found Extended Stay to be a totally delightful place to stay, not only because of the ambiance and cleanliness of the rooms but also because of the friendliness and devotion to service by the staff.  Particularly I would like to commend Cathy and Moses for their fine customer oriented service and their friendliness.  Primarily because of this I have decided to stay at least a couple of months while I figure out my next move.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r315901741-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>315901741</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Spend the extra accross the street</t>
+  </si>
+  <si>
+    <t>This motel is disgusting. I wont even put my luggage on the carpet. There are stains everywhere including on the mattress and blanket, burn holes in the blanket, something weird in the sink, broken and missing outlet covers, broken fixtures sitting on the counter, no extra toilet paper, spills not cleaned up on bedstand, food on the floor under the couch, a couple small dead bugs (some type of knat or young cockroach), hair in the kitchen drawer, broken bathroom sink knob (still functional) and an excess of built up dead bugs in both ceiling light fixtures. It could be worse, they tried to make it look modern. Definately dirty though. If my stay were refundable  (made an advance purchase thats not), I would cancel my reservation and go somewhere else that values cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>This motel is disgusting. I wont even put my luggage on the carpet. There are stains everywhere including on the mattress and blanket, burn holes in the blanket, something weird in the sink, broken and missing outlet covers, broken fixtures sitting on the counter, no extra toilet paper, spills not cleaned up on bedstand, food on the floor under the couch, a couple small dead bugs (some type of knat or young cockroach), hair in the kitchen drawer, broken bathroom sink knob (still functional) and an excess of built up dead bugs in both ceiling light fixtures. It could be worse, they tried to make it look modern. Definately dirty though. If my stay were refundable  (made an advance purchase thats not), I would cancel my reservation and go somewhere else that values cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r305518020-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>305518020</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Dirty and Smelly and the most unrestful sleep you will ever have!!!</t>
+  </si>
+  <si>
+    <t>If you like to wake up with your throat feeling like you smoked a pack of cigarettes when you don't even smoke, or like to have a room without a tv, or a broken safety chain, or just a plain old dirty hotel, then you might be ok here. Otherwise stay clear!!! You have been warned!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>If you like to wake up with your throat feeling like you smoked a pack of cigarettes when you don't even smoke, or like to have a room without a tv, or a broken safety chain, or just a plain old dirty hotel, then you might be ok here. Otherwise stay clear!!! You have been warned!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r293133387-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>293133387</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>An organizational mess</t>
+  </si>
+  <si>
+    <t>I booked through Extended Stay's web site a couple months in advance and called the hotel to specifically request a room with two beds (for me and my grown daughter).  They gave us a room with one bed.  They had no roll-aways, so I bought a cheap air mattress at Target.  They had no clean spare blankets, nor would they take responsibility for delivering one to my room when a blanket was laundered.  (We could pick one up because we'd be returning after the office was closed for the night.). I had to borrow a blanket from a friend in Lakewood.  Secondary complaints:  the breakfast was depleted and hour before it was to shut down.  No coffeemaker in room.  The room seemed clean, but the outside of the hotel was a little messy and decrepit.  Wifi was very slow.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>I booked through Extended Stay's web site a couple months in advance and called the hotel to specifically request a room with two beds (for me and my grown daughter).  They gave us a room with one bed.  They had no roll-aways, so I bought a cheap air mattress at Target.  They had no clean spare blankets, nor would they take responsibility for delivering one to my room when a blanket was laundered.  (We could pick one up because we'd be returning after the office was closed for the night.). I had to borrow a blanket from a friend in Lakewood.  Secondary complaints:  the breakfast was depleted and hour before it was to shut down.  No coffeemaker in room.  The room seemed clean, but the outside of the hotel was a little messy and decrepit.  Wifi was very slow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r277520056-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>277520056</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>I think the reviews are talking about a different hotel.</t>
+  </si>
+  <si>
+    <t>I was expecting the worst when I read these reviews last week and it was too late to cancel so i just hoped for the best. When I got to the room I was so relived to find a clean room... No bugs and looked newly remodeled. And the tv was a flat screen... It wasn't at all like those pictures someone put up on here. I guess there's another extended stay in lakewood so maybe that's the one they're talking about.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>I was expecting the worst when I read these reviews last week and it was too late to cancel so i just hoped for the best. When I got to the room I was so relived to find a clean room... No bugs and looked newly remodeled. And the tv was a flat screen... It wasn't at all like those pictures someone put up on here. I guess there's another extended stay in lakewood so maybe that's the one they're talking about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r275298655-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>275298655</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Disgusting roach infested hotel!!</t>
+  </si>
+  <si>
+    <t>Beware. This place was horrible. Roaches in our room. I don't need to say anymore but there was much more. Our window screens were falling out, ac didn't work, room smelled like mildew so bad we had to go get febrese! No clothes hangers, only 4 towels (we were supposed to stay a week) and the outside was filthy Stairs held together with duct tape, garbage everywhere. I witnessed a gallon bottle of iced tea sit on the railing covered in bugs for 3 days. We checked out early once we noticed the roaches and went across the street to a much cleaner place</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r264237249-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>264237249</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We did not get the room we booked by calling the 800 number. Check  with local manager because corporate does nothing to help when there is a problem when there has been an error in booking a roomIt was adequate for our visit but we have stayed in Denver area at one exactly like we wanted.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>We did not get the room we booked by calling the 800 number. Check  with local manager because corporate does nothing to help when there is a problem when there has been an error in booking a roomIt was adequate for our visit but we have stayed in Denver area at one exactly like we wanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r249882684-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>249882684</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>The hotel was clean and nice, and the employees were very helpful and made sure I had everything I needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was in room 205, and The people here are very friendly and help me out a lot. Danielle from the front desk was very sweet and helped me feel at home. They also gave you your space so they weren't breathing over your shoulder the whole time. The location isn't bad wish there were more food joints in walkin distance. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r249653031-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>249653031</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Best place in lakewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed at several extended stays and this by far is the best one staff is wondering David Danielle and Jennifer are great made me feel right at home rooms are clean spacious and the rates are affordable restaurants shopping transportation are all within walking distance I love it here </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r248987360-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>248987360</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>This is a home away from home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is always friendly and helpful. Its a great location with food and shopping near by. Its clean and quiet. I would say my experience has always been outstanding. The grab and go breakfast is a great way to start the day. It is a pleasant atmosphere any time you walk into the office. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r244195587-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>244195587</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Yikes! Dissappointing hotel chain.</t>
+  </si>
+  <si>
+    <t>This was the 2nd time we tried staying at an Extended Stay America and I can definitely say I won't try again. There are 2 good things about this hotel..... 1) The front desk staff was nice &amp; courteous 2) The rooms were updated.  THATS IT! The exterior of this hotel was very, very dirty. From gross stained concrete to empty food cans / wrappers scattered all over the place. The "live-in" residents were un-desireable as well. They were up partying / fighting until the early morning hours which gave us a very un-safe feeling. No kitchen utensils what-so-ever. This is the second time we have tried staying at one of these hotels and we have checked out early both times. I won't use this hotel chain in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This was the 2nd time we tried staying at an Extended Stay America and I can definitely say I won't try again. There are 2 good things about this hotel..... 1) The front desk staff was nice &amp; courteous 2) The rooms were updated.  THATS IT! The exterior of this hotel was very, very dirty. From gross stained concrete to empty food cans / wrappers scattered all over the place. The "live-in" residents were un-desireable as well. They were up partying / fighting until the early morning hours which gave us a very un-safe feeling. No kitchen utensils what-so-ever. This is the second time we have tried staying at one of these hotels and we have checked out early both times. I won't use this hotel chain in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r243331423-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>243331423</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Great Value! Marina was super awesome!</t>
+  </si>
+  <si>
+    <t>This location offers a great value for extended stays.  Old Chicago and Denny's are literally across the street, great happy hour at Old Chicago.  Right by free way to get to other places and downtown.  Walmart is quick drive or bus commute. (Bus stop is about 5 min walk).  Comfy bed, TV has good selection of channels, kitchen with full size fridge and microwave were great.  Great space for the few days we needed to stay.  Lots of easy parking.  People upstairs were making lots of noise, i called the office, they went and spoke to the guests above.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r237152060-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>237152060</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Awesome hospitality</t>
+  </si>
+  <si>
+    <t>I stayed care with my husband and my 18 month old son from September through October. The staff was amazing they went above and beyond their duties to help me get the best possible rate . They helped me go online and get my room for half the normal price. They were very accommodating and understanding with my infant son. They were flexible and accommodating,  I was in a car accident during my stay and was also 8 months pregnant but they made me feel at home.  My mother in law lived across the street and I was more comfortable at the hotel then her house. Rooms were clean and every time I went in lobby whether for breakfast or to make payment they always asked if there was anything I needed for my room.  David is the manager and was unbelievable in the lengths he went to make our stay comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I stayed care with my husband and my 18 month old son from September through October. The staff was amazing they went above and beyond their duties to help me get the best possible rate . They helped me go online and get my room for half the normal price. They were very accommodating and understanding with my infant son. They were flexible and accommodating,  I was in a car accident during my stay and was also 8 months pregnant but they made me feel at home.  My mother in law lived across the street and I was more comfortable at the hotel then her house. Rooms were clean and every time I went in lobby whether for breakfast or to make payment they always asked if there was anything I needed for my room.  David is the manager and was unbelievable in the lengths he went to make our stay comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r229776392-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>229776392</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>We stayed for one night while traveling cross country.  Chose this from a list of dog friendly hotels.  Among the many one and two night stays we've had on this trip, this was one of the poorer ones.  Below average on cleanliness (e.g., dirty wash cloth under the bed, musty odor to the room), and zero convenience items, not even shampoo.  Elevator was out of order.  Front desk staff were nice though.  All in all, we will stay elsewhere next time.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r226294391-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>226294391</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Not the best... Not even very good.</t>
+  </si>
+  <si>
+    <t>Cleanliness was barely acceptable, not great.  Things were in need of repair, such as a toilet which rocked back and forth when you sat on it.  The staff was nice and helpful... But overall, definitely not worth the savings.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r225154816-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>225154816</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Wonderful location, really friendly and attentive staff. Clean, comfortable and spacious rooms, pet-friendly.</t>
+  </si>
+  <si>
+    <t>The rooms are clean, comfortable and spacious. The staff, (David, Frances, Thomas &amp; Jennifer) are friendly, professional, extremely personable, and accommodating. The property is peaceful, tucked back in the trees. The landscaping is immaculate, lush with greenery and pet-friendly! Overall, my stay here was very relaxing and enjoyable. The staff went above and beyond for me, and were always happy to be of assistance in any way. I would recommend this wonderful hotel to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r220137163-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>220137163</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Best in Colorado!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and i take a trip to Denver once a year. This year our normal hotel messed up our reservation so we went to the extended stay. David and Jennifer were so amazing! The room was fantastic! I didn't want to leave the staff behind either when it was time to go! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r217024780-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217024780</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Great staff, poor room</t>
+  </si>
+  <si>
+    <t>The staff at the hotel was fantastic but the room was terrible.  The walls are extremely thin and I could hear the conversations going on in the next room as soon as I turned off the television.  The room was dirty with a piece of macaroni on the floor and toothpaste all over the faucet in the sink.  The room had no shampoo or hairdryer so I had to go to the front desk to get them.  I travel for business frequently and this was definately on the bottom of my list.  I will not be back.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r213698837-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>213698837</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>AWFUL</t>
+  </si>
+  <si>
+    <t>I reserved this room two weeks ago. Went to check in an hour early and they said the room wasn't ready. Came back later in the evening and they gave our room away! Then they said it wasn't our problem because we booked through a third party. Fourth of July evening and now it's spent sleeping in my vehicle because these idiots don't know what they are doing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r204962923-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>204962923</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Amazing Manager and Dog Area</t>
+  </si>
+  <si>
+    <t>I have now stayed a month at the Lakewood south hotel and I have enjoyed my time. The only thing that ever went wrong was someone had their dog off the leash and ran after my dog and I. But after we informed the manager it was dealt with immediately and no further problems happened. The room is nice and has a kitchenette and nice dishes, the daytime staff are all really nice and have great personalities. I also like that they have a large grass area for dogs to play and early in the day you can see rabbits and squirrels running around. Its a nice place and I would recomend it and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I have now stayed a month at the Lakewood south hotel and I have enjoyed my time. The only thing that ever went wrong was someone had their dog off the leash and ran after my dog and I. But after we informed the manager it was dealt with immediately and no further problems happened. The room is nice and has a kitchenette and nice dishes, the daytime staff are all really nice and have great personalities. I also like that they have a large grass area for dogs to play and early in the day you can see rabbits and squirrels running around. Its a nice place and I would recomend it and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r200953510-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>200953510</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>Room was clean; front desk was great.  Quiet, good value.  No ice maker though and limited TV stations.  Parking was easy and free; grab n go breakfast is fine.  Convenient area and easy to get around; lots of restaurants nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r200474590-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>200474590</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Extended stay is a great place to stay ! I'm in between apartments right now and this place makes me feel right at home.  Staff and manager David are extremely helpful, and very friendly.  The rooms are very clean and I love the fresh, hot coffee in the mornings.Untill i have a permanent home, extended stay is where i'll be !  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2014</t>
+  </si>
+  <si>
+    <t>Extended stay is a great place to stay ! I'm in between apartments right now and this place makes me feel right at home.  Staff and manager David are extremely helpful, and very friendly.  The rooms are very clean and I love the fresh, hot coffee in the mornings.Untill i have a permanent home, extended stay is where i'll be !  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r198946116-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>198946116</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>They made our stay comfortable AND take pets!</t>
+  </si>
+  <si>
+    <t>We came "back" to Lakewood for surgeries via Hawai'i and the country of Panama.  We were so pleased to find this hotel.  IT had just been renovated and the rooms had a good quality of people. No shanigans going on here with unsavory characters.  The parking lot is safe for our new car and the staff if nice and accessible. The turn key kitchenette has everything you need to be able to cook home made meals however we still managed to sneak in a lovely Mexican Soup from a nearby restaurant.  The manager himself is hands on and accommodating to all the guests. Did I mention they are pet friendly without the pet friendly HIGH PRICE.  They have plenty of room for your dogs to enjoy long walks or as ours did run chasing her balls nearby.  We are certainly happy we have stayed here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We came "back" to Lakewood for surgeries via Hawai'i and the country of Panama.  We were so pleased to find this hotel.  IT had just been renovated and the rooms had a good quality of people. No shanigans going on here with unsavory characters.  The parking lot is safe for our new car and the staff if nice and accessible. The turn key kitchenette has everything you need to be able to cook home made meals however we still managed to sneak in a lovely Mexican Soup from a nearby restaurant.  The manager himself is hands on and accommodating to all the guests. Did I mention they are pet friendly without the pet friendly HIGH PRICE.  They have plenty of room for your dogs to enjoy long walks or as ours did run chasing her balls nearby.  We are certainly happy we have stayed here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r197545450-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>197545450</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>By far, The Best!</t>
+  </si>
+  <si>
+    <t>I currently am on a house hunt, so finding somewhere I feel comfortable enough to stay in over a long period of time is quite the work itself. I've stayed in numerous hotels and never have I had any issues with the staff or property. The staff is great! Energetic, friendly and very responsive to my needs. The property is calm and very clean, as well as the room. They surely strive to meet your needs and make sure you feel right at home! I will always return to this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r196320973-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>196320973</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>Great Location, Great Staff</t>
+  </si>
+  <si>
+    <t>This location is my favorite hands down, I've stayed in Aurora locations, Denver locations and Lakewood staff is always friendly, they make sure you have what you need. This staff is always ready to lend a helping hand. I would recommend this location to anyone who enjoys a friendly staff and good location... keep up the good work Lakewood Staff =)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r179982098-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>179982098</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>This is an excellent place to stay.</t>
+  </si>
+  <si>
+    <t>The location or thisextended stay is quite nice as it has easy access to any where you wold want to go.   The staff makes you feel very welcomed and always asks if there is anything you need or can help you with.   At this location you have both a Costco and Sam's club near by as well as Walmart, KKingsoopers and various Restraints.          Thank You      Mrs. Bonnie Salazar   MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>The location or thisextended stay is quite nice as it has easy access to any where you wold want to go.   The staff makes you feel very welcomed and always asks if there is anything you need or can help you with.   At this location you have both a Costco and Sam's club near by as well as Walmart, KKingsoopers and various Restraints.          Thank You      Mrs. Bonnie Salazar   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r178604109-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178604109</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying with this amazing property and after such an amazing experience the first time, returning was a no-brainer. As expected, the staff was fantastic and the room, with upgraded bed and flat screen TV was as comfortable as can be. I would like to personally thank and commend David and Marina who handled my reservation and navigated the logistics of my stay with complete courtesy and professionalism. Again, this staff exceeds the expected standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying with this amazing property and after such an amazing experience the first time, returning was a no-brainer. As expected, the staff was fantastic and the room, with upgraded bed and flat screen TV was as comfortable as can be. I would like to personally thank and commend David and Marina who handled my reservation and navigated the logistics of my stay with complete courtesy and professionalism. Again, this staff exceeds the expected standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r176625644-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>176625644</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Unbelievably Negligent, Misleading and Discourteous</t>
+  </si>
+  <si>
+    <t>We had made and confirmed reservations GUARANTEED FOR LATE ARRIVAL with this hotel several days before our arrival on 09/02/13. After spending a great deal of time reviewing their website, pricing and availability, then over the phone with "Marina" to confirm that we would have a non-smoking room and queen-size beds, with free passes to Bally's for swimming, upon our arrival at about 6 PM, we appallingly learned that they had sold out our reservations. No non-smoking room available for us, much less with the terms and amenities they had confirmed for us!  We further learned that their "free passes" were to a Bally's withOUT a pool! Conveniently, the management was not available, and after we had kept trying to contact the general manager for days thereafter, he was never available. When we were blessed enough to have acquired accommodations at the nearby LaQuinta Inn, with tremendous outreach of service, we learned that some other guests at this Extended Stay of America had left that hotel to reserve at LaQuinta because the Extended Stay had construction personnel sanding their room doors at 4:00 AM, disrupting their sleep. Interesting, as Marina had also assured us that all the construction work was being done on the EXTERIOR of the facility.Needless to write, this Extended Stay will never receive our business again. Never!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>We had made and confirmed reservations GUARANTEED FOR LATE ARRIVAL with this hotel several days before our arrival on 09/02/13. After spending a great deal of time reviewing their website, pricing and availability, then over the phone with "Marina" to confirm that we would have a non-smoking room and queen-size beds, with free passes to Bally's for swimming, upon our arrival at about 6 PM, we appallingly learned that they had sold out our reservations. No non-smoking room available for us, much less with the terms and amenities they had confirmed for us!  We further learned that their "free passes" were to a Bally's withOUT a pool! Conveniently, the management was not available, and after we had kept trying to contact the general manager for days thereafter, he was never available. When we were blessed enough to have acquired accommodations at the nearby LaQuinta Inn, with tremendous outreach of service, we learned that some other guests at this Extended Stay of America had left that hotel to reserve at LaQuinta because the Extended Stay had construction personnel sanding their room doors at 4:00 AM, disrupting their sleep. Interesting, as Marina had also assured us that all the construction work was being done on the EXTERIOR of the facility.Needless to write, this Extended Stay will never receive our business again. Never!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r171822874-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>171822874</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>neighborly</t>
+  </si>
+  <si>
+    <t>lovely neighbor feel, good location, feel at home, cheaper than any where else for monthly stay. smoking rooms, if preferred. welcomes my sweet Siberian Husky, Loki. Friendly staff. remembers me from first stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>lovely neighbor feel, good location, feel at home, cheaper than any where else for monthly stay. smoking rooms, if preferred. welcomes my sweet Siberian Husky, Loki. Friendly staff. remembers me from first stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r166304791-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>166304791</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>I stayed several nights at the Extended stay. I really enjoyed my stay there. Everyone was extremely nice and went completely out of their way to help and make my stay as comfortable as possible. Anytime I needed help their was always someone willing to help. Every morning their was coffee downstairs... Good coffee...the room was cleaned very well MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>I stayed several nights at the Extended stay. I really enjoyed my stay there. Everyone was extremely nice and went completely out of their way to help and make my stay as comfortable as possible. Anytime I needed help their was always someone willing to help. Every morning their was coffee downstairs... Good coffee...the room was cleaned very well More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r165479929-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>165479929</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>shantel WORRELL</t>
+  </si>
+  <si>
+    <t>My stay here has been good. I feel very safe here, my husband travels for a living, so it's just my son and I most of the time. my son has made some new friends here, The staff here is very friendly. they have a good and healthy breakfast bar. They have very good deal on rooms to. and now they got discounts for guest to go to Elitch garden. can't wait to go. very good housekeeping. and very friendly to. nice kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>My stay here has been good. I feel very safe here, my husband travels for a living, so it's just my son and I most of the time. my son has made some new friends here, The staff here is very friendly. they have a good and healthy breakfast bar. They have very good deal on rooms to. and now they got discounts for guest to go to Elitch garden. can't wait to go. very good housekeeping. and very friendly to. nice kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r162562698-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>162562698</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Bare bones but clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Excellent staff, clean room in a great location.  This facility has been upgraded and the new mattress was a real improvement. We stayed several days and appreciated the kitchen facilities in the room.  Not fancy but very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2013</t>
+  </si>
+  <si>
+    <t>Excellent staff, clean room in a great location.  This facility has been upgraded and the new mattress was a real improvement. We stayed several days and appreciated the kitchen facilities in the room.  Not fancy but very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r158830066-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>158830066</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Fantastic all around! Stayed here about a month and would recommend this hotel to anyone!</t>
+  </si>
+  <si>
+    <t>Superb staff, very clean rooms, quiet location, and excellent wifi connection. I was at the other Lakewood property (west) and had horrible service and wifi connection and would NOT recommend that location, so I transferred to Lakewood South. So glad I did! The staff was fantastic, clean room and very high quality service all around with excellent wifi so I could get work done. I had my pajamas stolen at the west location and the district manager even reimbursed me for the loss. Now who would do such a nice thing like that these days?? She did! Lakewood South experience was just overall superb and highly recommend this hotel! 5 stars just even isn't enough! As I said ALL the staff were fantastic and the value, quality and location were superb! Thank you to all the staff there as they were so friendly and helpful! Again I highly recommend this hotel! Tricia B.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2013</t>
+  </si>
+  <si>
+    <t>Superb staff, very clean rooms, quiet location, and excellent wifi connection. I was at the other Lakewood property (west) and had horrible service and wifi connection and would NOT recommend that location, so I transferred to Lakewood South. So glad I did! The staff was fantastic, clean room and very high quality service all around with excellent wifi so I could get work done. I had my pajamas stolen at the west location and the district manager even reimbursed me for the loss. Now who would do such a nice thing like that these days?? She did! Lakewood South experience was just overall superb and highly recommend this hotel! 5 stars just even isn't enough! As I said ALL the staff were fantastic and the value, quality and location were superb! Thank you to all the staff there as they were so friendly and helpful! Again I highly recommend this hotel! Tricia B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r158490257-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>158490257</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Service staff are real fine people &amp; room is comfortable.</t>
+  </si>
+  <si>
+    <t>We met most of most of the staff over the first part of our stay including maintenance and house keeping. Everyone seemed genuine &amp; friendly and were doing more than just a "job." (I hope the company is doing profit sharing with them. They seem to work as a team.) I am doing this review after my first week. I will write another one at the end of my 3 week stay.  The room was clean including kitchen area, refrig &amp; stove eyes, microwave, drawers, bathroom.  Refrig can make normal compressor noises so we advise loading with water, milk, orange juice, soda, etc to add bulk. Then adjust refrig temp to suit so cycle is longer. This a good place to stay while we are helping our daughter &amp; husband with newborn for few weeks. We were in Queen Suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>We met most of most of the staff over the first part of our stay including maintenance and house keeping. Everyone seemed genuine &amp; friendly and were doing more than just a "job." (I hope the company is doing profit sharing with them. They seem to work as a team.) I am doing this review after my first week. I will write another one at the end of my 3 week stay.  The room was clean including kitchen area, refrig &amp; stove eyes, microwave, drawers, bathroom.  Refrig can make normal compressor noises so we advise loading with water, milk, orange juice, soda, etc to add bulk. Then adjust refrig temp to suit so cycle is longer. This a good place to stay while we are helping our daughter &amp; husband with newborn for few weeks. We were in Queen Suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r155437391-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155437391</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Great 8 days</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had a wonderful 8 day stay because of Francine. She was fabulous and was more than helpful when we ran into a few issues. Thank you for your great customer service. The location is easy access to 285 and close to Belmar for all your shopping needs. All in all great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had a wonderful 8 day stay because of Francine. She was fabulous and was more than helpful when we ran into a few issues. Thank you for your great customer service. The location is easy access to 285 and close to Belmar for all your shopping needs. All in all great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r154052942-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>154052942</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>David, hotel manager is the best. Very polite, helpful and professional</t>
+  </si>
+  <si>
+    <t>I had stayed at this location for 2 months while looking for other living arrangements. My room was very comfortable. The accommodations were good and if I had any concerns they were remedied almost immediately. I will say that the hotel manager, David, was extremely helpful, considerate, polite and over all professional. Matt was also great. I cannot recall the names of all of the staff members, but I enjoyed staying there and they made my transition smooth.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded March 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2013</t>
+  </si>
+  <si>
+    <t>I had stayed at this location for 2 months while looking for other living arrangements. My room was very comfortable. The accommodations were good and if I had any concerns they were remedied almost immediately. I will say that the hotel manager, David, was extremely helpful, considerate, polite and over all professional. Matt was also great. I cannot recall the names of all of the staff members, but I enjoyed staying there and they made my transition smooth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r154034333-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>154034333</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Relaxing!</t>
+  </si>
+  <si>
+    <t>I was in Denver for a week on business, my company put me up in the Extended Stay America Denver-Lakewood South. When on business I put in a lot of hours, so it's very important that I get a good nights sleep! The room I had was very quiet and the bed was comfortable. Needless to say I slept like a baby! I didn't mind the great view of the mountains either! The staff was wonderful, they made me feel like family! When I come back to Denver they will be my first choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I was in Denver for a week on business, my company put me up in the Extended Stay America Denver-Lakewood South. When on business I put in a lot of hours, so it's very important that I get a good nights sleep! The room I had was very quiet and the bed was comfortable. Needless to say I slept like a baby! I didn't mind the great view of the mountains either! The staff was wonderful, they made me feel like family! When I come back to Denver they will be my first choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r151384667-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>151384667</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>So glad we gave it a try!</t>
+  </si>
+  <si>
+    <t>I was a little relunctant to book here after reading some of the older reviews but I can assure you this place is not the same as it was a year ago. Check in was good, we got a room right away and was quite suprised at the quality of the room, it really wasn't what I had expected. The bed linens were clean and updated the carprt looked clean. The room was spacious. The kitchen and bathrooms were both clean. The gentleman that assited us at check in was the property manager and he was extremely helpful and truly wanted us to have the best stay. I could tell that he really did take alot of pride in making this location the best it could be. We had borrowed a luggage cart from the front desk and when my husband was taking it back down one of the ladies from the front desk was walking by and insisted that she take it back for him.
+There do seem to be a lot of folks with pets but we were not disturbed by noise at all! The grounds are kept neat. The only complaint I have, if you can call it a complaint, is that we were originally charged for a phone call that was apparently made from our room the day we arrived, but we did not make it, and when I called the hotel about it, the charge...I was a little relunctant to book here after reading some of the older reviews but I can assure you this place is not the same as it was a year ago. Check in was good, we got a room right away and was quite suprised at the quality of the room, it really wasn't what I had expected. The bed linens were clean and updated the carprt looked clean. The room was spacious. The kitchen and bathrooms were both clean. The gentleman that assited us at check in was the property manager and he was extremely helpful and truly wanted us to have the best stay. I could tell that he really did take alot of pride in making this location the best it could be. We had borrowed a luggage cart from the front desk and when my husband was taking it back down one of the ladies from the front desk was walking by and insisted that she take it back for him.There do seem to be a lot of folks with pets but we were not disturbed by noise at all! The grounds are kept neat. The only complaint I have, if you can call it a complaint, is that we were originally charged for a phone call that was apparently made from our room the day we arrived, but we did not make it, and when I called the hotel about it, the charge was removed.I really think that if you've visited this location in the past and give it a try again you'll be quite pleased with the changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>I was a little relunctant to book here after reading some of the older reviews but I can assure you this place is not the same as it was a year ago. Check in was good, we got a room right away and was quite suprised at the quality of the room, it really wasn't what I had expected. The bed linens were clean and updated the carprt looked clean. The room was spacious. The kitchen and bathrooms were both clean. The gentleman that assited us at check in was the property manager and he was extremely helpful and truly wanted us to have the best stay. I could tell that he really did take alot of pride in making this location the best it could be. We had borrowed a luggage cart from the front desk and when my husband was taking it back down one of the ladies from the front desk was walking by and insisted that she take it back for him.
+There do seem to be a lot of folks with pets but we were not disturbed by noise at all! The grounds are kept neat. The only complaint I have, if you can call it a complaint, is that we were originally charged for a phone call that was apparently made from our room the day we arrived, but we did not make it, and when I called the hotel about it, the charge...I was a little relunctant to book here after reading some of the older reviews but I can assure you this place is not the same as it was a year ago. Check in was good, we got a room right away and was quite suprised at the quality of the room, it really wasn't what I had expected. The bed linens were clean and updated the carprt looked clean. The room was spacious. The kitchen and bathrooms were both clean. The gentleman that assited us at check in was the property manager and he was extremely helpful and truly wanted us to have the best stay. I could tell that he really did take alot of pride in making this location the best it could be. We had borrowed a luggage cart from the front desk and when my husband was taking it back down one of the ladies from the front desk was walking by and insisted that she take it back for him.There do seem to be a lot of folks with pets but we were not disturbed by noise at all! The grounds are kept neat. The only complaint I have, if you can call it a complaint, is that we were originally charged for a phone call that was apparently made from our room the day we arrived, but we did not make it, and when I called the hotel about it, the charge was removed.I really think that if you've visited this location in the past and give it a try again you'll be quite pleased with the changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r151048087-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>151048087</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Home between Home</t>
+  </si>
+  <si>
+    <t>This property was a plesant surprise for me. Having never stayed with Extended Stay before I didnt know what to expect. Let me just say I am very impressed!! From the amazing staff members to the new flat screen TV's it is a pleasure to stay here. The rooms are nice with a well stocked kitchen, microwave, toaster and coffee maker. The new beds are a bonus and quite comfy too! The property manager, David, does an excellent job running things and treats both his guests and employees like family. I have been in the office several times and have seen and heard his dealings with all types of people, he is curteous, professional and friendly. He will go out of his way to make a guest happy. He is just an all around great guy and an excellent manager!! From the housekeeping staff to the front office staff they are all very helpfull, friendly and make you feel right at home. Francisco and Marina are two of the office staff that I feel deserve special recognition. They both go over and above to make sure a guest is satisfied and has everyrthing that they need. Marisole and Sandra and part of the housekeeping staff and both do an excellent job in their duties.I feel I have made friends during my stay here and will miss them when I move into my new apt.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2013</t>
+  </si>
+  <si>
+    <t>This property was a plesant surprise for me. Having never stayed with Extended Stay before I didnt know what to expect. Let me just say I am very impressed!! From the amazing staff members to the new flat screen TV's it is a pleasure to stay here. The rooms are nice with a well stocked kitchen, microwave, toaster and coffee maker. The new beds are a bonus and quite comfy too! The property manager, David, does an excellent job running things and treats both his guests and employees like family. I have been in the office several times and have seen and heard his dealings with all types of people, he is curteous, professional and friendly. He will go out of his way to make a guest happy. He is just an all around great guy and an excellent manager!! From the housekeeping staff to the front office staff they are all very helpfull, friendly and make you feel right at home. Francisco and Marina are two of the office staff that I feel deserve special recognition. They both go over and above to make sure a guest is satisfied and has everyrthing that they need. Marisole and Sandra and part of the housekeeping staff and both do an excellent job in their duties.I feel I have made friends during my stay here and will miss them when I move into my new apt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r150972113-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150972113</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Waste of time, bigger waste of $$$.</t>
+  </si>
+  <si>
+    <t>Fire alarmsPolice dailyUnprofessional StaffRent Changes Every WeekTenants are "long term"stay not just a month or two. Internet network hardly runs I relied on 3G. Not even a trash can of some sort in front of hotel have to walk to back lot parking. Travel more than most and hate to see these False reviews left for this establishment.  1 star is sufficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Fire alarmsPolice dailyUnprofessional StaffRent Changes Every WeekTenants are "long term"stay not just a month or two. Internet network hardly runs I relied on 3G. Not even a trash can of some sort in front of hotel have to walk to back lot parking. Travel more than most and hate to see these False reviews left for this establishment.  1 star is sufficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r150742699-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150742699</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay - Sad to Leave</t>
+  </si>
+  <si>
+    <t>I only stayed at Extended Stay for 1 week but actually was sad to leave. I enjoyed my time there and my room. The room was clean, upbeat, had more than I was expecting (such as a nice flat screen tv) and the bathrooms were very clean and nice. My neighbors and other residents were very social and everyone was cool and laid back. I even had my room cleaned by housekeeping which was great. I had a great conversation with one of the cleaning personnel while she cleaned my room efficiently and effectively. I believe I got a lot more than is expected, considering the low weekly rate. I have stayed at other budget motels and could not wait to leave. This time I actually liked being there, inside the room and on the grounds. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>I only stayed at Extended Stay for 1 week but actually was sad to leave. I enjoyed my time there and my room. The room was clean, upbeat, had more than I was expecting (such as a nice flat screen tv) and the bathrooms were very clean and nice. My neighbors and other residents were very social and everyone was cool and laid back. I even had my room cleaned by housekeeping which was great. I had a great conversation with one of the cleaning personnel while she cleaned my room efficiently and effectively. I believe I got a lot more than is expected, considering the low weekly rate. I have stayed at other budget motels and could not wait to leave. This time I actually liked being there, inside the room and on the grounds. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r149932838-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>149932838</t>
+  </si>
+  <si>
+    <t>01/17/2013</t>
+  </si>
+  <si>
+    <t>Has the feeling of being home</t>
+  </si>
+  <si>
+    <t>From david to marina and the rest of staff. It was a very nice stay. Whenever we needed something they were there to meet our needs. Rooms were nice and comfortable and kept cleaned. We will go back if need a room for a length of time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2013</t>
+  </si>
+  <si>
+    <t>From david to marina and the rest of staff. It was a very nice stay. Whenever we needed something they were there to meet our needs. Rooms were nice and comfortable and kept cleaned. We will go back if need a room for a length of time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r149584149-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>149584149</t>
+  </si>
+  <si>
+    <t>01/13/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America - Denver - Lakewood South</t>
+  </si>
+  <si>
+    <t>The staff at this facility is just great, I had a very pleasent stay!  By the end of the second week the staff were calling me by name.  They really made me feel at home they gave good advice on local traffic and the best places to eat.  They whent out of their way to ensure I had a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded January 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2013</t>
+  </si>
+  <si>
+    <t>The staff at this facility is just great, I had a very pleasent stay!  By the end of the second week the staff were calling me by name.  They really made me feel at home they gave good advice on local traffic and the best places to eat.  They whent out of their way to ensure I had a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r139289079-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>139289079</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>not the worst</t>
+  </si>
+  <si>
+    <t>not the wost place to stay but they need to do something about the fire alarms going off everyday that i stayed there 5 days in all and kids running around screaming people arguing all night long the firemen were there more than i was i will not be going back there i stayed there before and there were no problemsMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>not the wost place to stay but they need to do something about the fire alarms going off everyday that i stayed there 5 days in all and kids running around screaming people arguing all night long the firemen were there more than i was i will not be going back there i stayed there before and there were no problemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r138138109-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138138109</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Not a Motel, but Cheap Housing</t>
+  </si>
+  <si>
+    <t>I have stayed at Extended Stay Americas years ago and had thought they were a neat idea for having a studio apartment while in vacation. First of all, you could tell by the people hanging out outside that these were residents, not vacationers or business travellers. Our room was in the back of the building and my wife and I both got an unsafe feeling and that we wouldn't want to come and go after dark. Our room was tiny for what I'd expect in an "extended stay" option. No loveseat or couch for viewing tv, you'd have to be lying in bed. The kitchen cabinets were the cheap white laminate style, which would be ok except that the laminate was delaminating from the bottoms of all the base cabinets. There were stains on the countertop. The bathroom was tiny. We were supposed to stay for 3 nights, but only stayed one and went to the Holiday Inn next door and gladly paid the extra $40 a night. It's not worth the cheap price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at Extended Stay Americas years ago and had thought they were a neat idea for having a studio apartment while in vacation. First of all, you could tell by the people hanging out outside that these were residents, not vacationers or business travellers. Our room was in the back of the building and my wife and I both got an unsafe feeling and that we wouldn't want to come and go after dark. Our room was tiny for what I'd expect in an "extended stay" option. No loveseat or couch for viewing tv, you'd have to be lying in bed. The kitchen cabinets were the cheap white laminate style, which would be ok except that the laminate was delaminating from the bottoms of all the base cabinets. There were stains on the countertop. The bathroom was tiny. We were supposed to stay for 3 nights, but only stayed one and went to the Holiday Inn next door and gladly paid the extra $40 a night. It's not worth the cheap price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r137264734-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>137264734</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Not for business OR pleasure</t>
+  </si>
+  <si>
+    <t>My company booked me here for a business trip. I was supposed to stay 4 nights, but I could not wait to get out of there. In its defense, the property is in desperate need of a total remodel. The staff was friendly and courteous. The property itself isn't suitable for business travelers or vacations. It's clearly a place where people are staying for an extended amount of time - as in living there. It had the feel of a low income apartment complex. I didnt even have any toiletries or a hair dryer in my room  So if you're looking for temporary housing, great. If not, keep looking. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>My company booked me here for a business trip. I was supposed to stay 4 nights, but I could not wait to get out of there. In its defense, the property is in desperate need of a total remodel. The staff was friendly and courteous. The property itself isn't suitable for business travelers or vacations. It's clearly a place where people are staying for an extended amount of time - as in living there. It had the feel of a low income apartment complex. I didnt even have any toiletries or a hair dryer in my room  So if you're looking for temporary housing, great. If not, keep looking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r127740086-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>127740086</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Excellent Location, Very Nice Landscaping, Very Nice Personnel</t>
+  </si>
+  <si>
+    <t>I've stayed at this property many times over the years. The front desk personnel have always been very pleasant and helpful. The rooms, with rare exceptions, are clean and quiet with no road noise. The landscaping, while usually not a concern for most travelers, gives the hotel a upscale feel. For long stays, this hotel gives excellent value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Lakewood South, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at this property many times over the years. The front desk personnel have always been very pleasant and helpful. The rooms, with rare exceptions, are clean and quiet with no road noise. The landscaping, while usually not a concern for most travelers, gives the hotel a upscale feel. For long stays, this hotel gives excellent value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r122690796-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>122690796</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay, which is very little!</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks out of necessity, not desire.  Saying the place was disgusting is an understatement.  The back of the refrigerator was brown and looked like it had either burnt or actually caught on fire recently.  The pan they had in the place was so burnt, luckily they had a replacement.  The sheets and mattress had stains, and when we asked for replacement sheets, they didn't have any to give us.  We were supposed to get a cleaning service once a week and they skipped us one week entirely.  When we asked for new sheets and towels, out of 10 items switched out we received 2, which once again was not the sheets.  When we complained about this, we were told there was "nothing they could do."  there were numerous stains on the walls and floor.  When we moved the recliner out of the corner we found a thick layer of dust, empty bottles, and a pair of socks.  Under the bed was a similar story, except for numerous bottles.  Behind the dresser was another pair of socks bundled up and packages of benedryl.  We understand we were only paying $35 a day to stay there, but I question if it was worth even that.  
+You also have to understand, like any apartment or building shared with a lot of people, that when one person burns their dinner at 11:30 at night, and the fire alarms blare...We stayed here for 3 weeks out of necessity, not desire.  Saying the place was disgusting is an understatement.  The back of the refrigerator was brown and looked like it had either burnt or actually caught on fire recently.  The pan they had in the place was so burnt, luckily they had a replacement.  The sheets and mattress had stains, and when we asked for replacement sheets, they didn't have any to give us.  We were supposed to get a cleaning service once a week and they skipped us one week entirely.  When we asked for new sheets and towels, out of 10 items switched out we received 2, which once again was not the sheets.  When we complained about this, we were told there was "nothing they could do."  there were numerous stains on the walls and floor.  When we moved the recliner out of the corner we found a thick layer of dust, empty bottles, and a pair of socks.  Under the bed was a similar story, except for numerous bottles.  Behind the dresser was another pair of socks bundled up and packages of benedryl.  We understand we were only paying $35 a day to stay there, but I question if it was worth even that.  You also have to understand, like any apartment or building shared with a lot of people, that when one person burns their dinner at 11:30 at night, and the fire alarms blare for 30 minutes, that they can't do anything til the fire department arrives, they also dont bother to inform people as to what is going on and if you should leave or not.  There was no pool or workout center, as someone had recently posted.  The laundry room was filthy.I will never stay at this place again, and will certainly not recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks out of necessity, not desire.  Saying the place was disgusting is an understatement.  The back of the refrigerator was brown and looked like it had either burnt or actually caught on fire recently.  The pan they had in the place was so burnt, luckily they had a replacement.  The sheets and mattress had stains, and when we asked for replacement sheets, they didn't have any to give us.  We were supposed to get a cleaning service once a week and they skipped us one week entirely.  When we asked for new sheets and towels, out of 10 items switched out we received 2, which once again was not the sheets.  When we complained about this, we were told there was "nothing they could do."  there were numerous stains on the walls and floor.  When we moved the recliner out of the corner we found a thick layer of dust, empty bottles, and a pair of socks.  Under the bed was a similar story, except for numerous bottles.  Behind the dresser was another pair of socks bundled up and packages of benedryl.  We understand we were only paying $35 a day to stay there, but I question if it was worth even that.  
+You also have to understand, like any apartment or building shared with a lot of people, that when one person burns their dinner at 11:30 at night, and the fire alarms blare...We stayed here for 3 weeks out of necessity, not desire.  Saying the place was disgusting is an understatement.  The back of the refrigerator was brown and looked like it had either burnt or actually caught on fire recently.  The pan they had in the place was so burnt, luckily they had a replacement.  The sheets and mattress had stains, and when we asked for replacement sheets, they didn't have any to give us.  We were supposed to get a cleaning service once a week and they skipped us one week entirely.  When we asked for new sheets and towels, out of 10 items switched out we received 2, which once again was not the sheets.  When we complained about this, we were told there was "nothing they could do."  there were numerous stains on the walls and floor.  When we moved the recliner out of the corner we found a thick layer of dust, empty bottles, and a pair of socks.  Under the bed was a similar story, except for numerous bottles.  Behind the dresser was another pair of socks bundled up and packages of benedryl.  We understand we were only paying $35 a day to stay there, but I question if it was worth even that.  You also have to understand, like any apartment or building shared with a lot of people, that when one person burns their dinner at 11:30 at night, and the fire alarms blare for 30 minutes, that they can't do anything til the fire department arrives, they also dont bother to inform people as to what is going on and if you should leave or not.  There was no pool or workout center, as someone had recently posted.  The laundry room was filthy.I will never stay at this place again, and will certainly not recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r118519268-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>118519268</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Very friendly and welcoming staff.</t>
+  </si>
+  <si>
+    <t>The rooms are a bit small, but the staff are very friendly and welcoming.The continental breakfast is not much, but it does the job. For the price point, I don't think you'll find any better option in the area.Again the service was absolutely wonderful during my entire stay. The internet here is quite slow though, as many people live here mor ethan a couple days, I think they may be downloading stuff and such, which slows it down for everyone. They did have comcast out working on the internet speed issues while I was there though, so maybe its better now.The swimming pool is simple, but clean. There is no food on site, but there is a restaurant right next door (separate from the hotel though). They do deliver to the rooms though fyi.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>The rooms are a bit small, but the staff are very friendly and welcoming.The continental breakfast is not much, but it does the job. For the price point, I don't think you'll find any better option in the area.Again the service was absolutely wonderful during my entire stay. The internet here is quite slow though, as many people live here mor ethan a couple days, I think they may be downloading stuff and such, which slows it down for everyone. They did have comcast out working on the internet speed issues while I was there though, so maybe its better now.The swimming pool is simple, but clean. There is no food on site, but there is a restaurant right next door (separate from the hotel though). They do deliver to the rooms though fyi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r41425731-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>41425731</t>
+  </si>
+  <si>
+    <t>09/13/2009</t>
+  </si>
+  <si>
+    <t>Terrible - don't stay here!!</t>
+  </si>
+  <si>
+    <t>Dirty! Soiled furniture, walls, phone. Rude male desk clerk. Elevator broken and will be down for next three weeks for replacement of pulley. Elevator has needed replacement for past three years per hotel personnel. Corporate does not maintain this location. Dirty!  Depressing place to stay!!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r40157953-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>40157953</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>Don't EVER Stay here!! Worst Place ever!!!</t>
+  </si>
+  <si>
+    <t>This is the worse place you could ever stay. Over charged my credit card giving me no funds to enjoy my weekend OR get another place to stay. Elevator was out and place me and my 75 year old mother on the 3rd floor with 4 days worth of bags!!! Then after asking for help to get her to the 3rd floor and bags, said they didn't have anyone available to help! When they were supposed to CREDIT my card for over charges, I get home to view my bank statement and they CHARGED it again instead of CREDIT!!! Service for more supplies like TOILET PAPER, SOAP AND TOWELS never came!!! Don't EVER stay here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worse place you could ever stay. Over charged my credit card giving me no funds to enjoy my weekend OR get another place to stay. Elevator was out and place me and my 75 year old mother on the 3rd floor with 4 days worth of bags!!! Then after asking for help to get her to the 3rd floor and bags, said they didn't have anyone available to help! When they were supposed to CREDIT my card for over charges, I get home to view my bank statement and they CHARGED it again instead of CREDIT!!! Service for more supplies like TOILET PAPER, SOAP AND TOWELS never came!!! Don't EVER stay here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d120076-r29260924-Extended_Stay_America_Denver_Lakewood_South-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>29260924</t>
+  </si>
+  <si>
+    <t>05/03/2009</t>
+  </si>
+  <si>
+    <t>We were charged more than we were quoted @ reservation</t>
+  </si>
+  <si>
+    <t>When we made this 3 night reservation we were quoted 39.99, 49.99 &amp; 49.99 consecutively per night for a king non-smoking room (due to my wife's health issues)  for 2 adults.  The room (per the desk clerk) that was actually reserved was a king smoking room.  We complained but were told the only room available @ the time of check in was a queen non smoking which we reluctantly accepted.  The clerk also told us it would actually be less charge anyway, so we were agreeable to that.  At check out the only clerk on duty refused to give us a receipt, but we didn't have time to argue because we had a long drive ahead of us &amp; needed to get home for our pets.  After getting home I checked the receipt on line &amp; discovered that not only were we charged more per night than we were quoted @ the reservation but we also charged an "extra guest fee" of $20.00 that we were not informed of.  It appears as if this chain is involved if deceptive practices or fraud, I haven't decided which as of yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>When we made this 3 night reservation we were quoted 39.99, 49.99 &amp; 49.99 consecutively per night for a king non-smoking room (due to my wife's health issues)  for 2 adults.  The room (per the desk clerk) that was actually reserved was a king smoking room.  We complained but were told the only room available @ the time of check in was a queen non smoking which we reluctantly accepted.  The clerk also told us it would actually be less charge anyway, so we were agreeable to that.  At check out the only clerk on duty refused to give us a receipt, but we didn't have time to argue because we had a long drive ahead of us &amp; needed to get home for our pets.  After getting home I checked the receipt on line &amp; discovered that not only were we charged more per night than we were quoted @ the reservation but we also charged an "extra guest fee" of $20.00 that we were not informed of.  It appears as if this chain is involved if deceptive practices or fraud, I haven't decided which as of yet.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2699,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2731,6160 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>252</v>
+      </c>
+      <c r="X25" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>294</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>314</v>
+      </c>
+      <c r="X34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>340</v>
+      </c>
+      <c r="X37" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>348</v>
+      </c>
+      <c r="X38" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J39" t="s">
+        <v>353</v>
+      </c>
+      <c r="K39" t="s">
+        <v>354</v>
+      </c>
+      <c r="L39" t="s">
+        <v>355</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>356</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>362</v>
+      </c>
+      <c r="X40" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>366</v>
+      </c>
+      <c r="J41" t="s">
+        <v>367</v>
+      </c>
+      <c r="K41" t="s">
+        <v>368</v>
+      </c>
+      <c r="L41" t="s">
+        <v>369</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>370</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>371</v>
+      </c>
+      <c r="X41" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>379</v>
+      </c>
+      <c r="X42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>370</v>
+      </c>
+      <c r="O43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>387</v>
+      </c>
+      <c r="X43" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>390</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>391</v>
+      </c>
+      <c r="J44" t="s">
+        <v>392</v>
+      </c>
+      <c r="K44" t="s">
+        <v>393</v>
+      </c>
+      <c r="L44" t="s">
+        <v>394</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>370</v>
+      </c>
+      <c r="O44" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>395</v>
+      </c>
+      <c r="X44" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>398</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>399</v>
+      </c>
+      <c r="J45" t="s">
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>403</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>404</v>
+      </c>
+      <c r="X45" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>408</v>
+      </c>
+      <c r="J46" t="s">
+        <v>409</v>
+      </c>
+      <c r="K46" t="s">
+        <v>410</v>
+      </c>
+      <c r="L46" t="s">
+        <v>411</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>412</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>413</v>
+      </c>
+      <c r="X46" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>417</v>
+      </c>
+      <c r="J47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L47" t="s">
+        <v>420</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>421</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>422</v>
+      </c>
+      <c r="X47" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>426</v>
+      </c>
+      <c r="J48" t="s">
+        <v>427</v>
+      </c>
+      <c r="K48" t="s">
+        <v>428</v>
+      </c>
+      <c r="L48" t="s">
+        <v>429</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>430</v>
+      </c>
+      <c r="O48" t="s">
+        <v>133</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>434</v>
+      </c>
+      <c r="L49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>436</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>437</v>
+      </c>
+      <c r="X49" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" t="s">
+        <v>442</v>
+      </c>
+      <c r="K50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>446</v>
+      </c>
+      <c r="J51" t="s">
+        <v>447</v>
+      </c>
+      <c r="K51" t="s">
+        <v>448</v>
+      </c>
+      <c r="L51" t="s">
+        <v>449</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>450</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" t="s">
+        <v>453</v>
+      </c>
+      <c r="L52" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>460</v>
+      </c>
+      <c r="O53" t="s">
+        <v>108</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>463</v>
+      </c>
+      <c r="J54" t="s">
+        <v>464</v>
+      </c>
+      <c r="K54" t="s">
+        <v>465</v>
+      </c>
+      <c r="L54" t="s">
+        <v>466</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>460</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>468</v>
+      </c>
+      <c r="J55" t="s">
+        <v>469</v>
+      </c>
+      <c r="K55" t="s">
+        <v>470</v>
+      </c>
+      <c r="L55" t="s">
+        <v>471</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>472</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>475</v>
+      </c>
+      <c r="J56" t="s">
+        <v>476</v>
+      </c>
+      <c r="K56" t="s">
+        <v>477</v>
+      </c>
+      <c r="L56" t="s">
+        <v>478</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O56" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>490</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+      <c r="J59" t="s">
+        <v>492</v>
+      </c>
+      <c r="K59" t="s">
+        <v>493</v>
+      </c>
+      <c r="L59" t="s">
+        <v>494</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>495</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+      <c r="J60" t="s">
+        <v>497</v>
+      </c>
+      <c r="K60" t="s">
+        <v>498</v>
+      </c>
+      <c r="L60" t="s">
+        <v>499</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>500</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>506</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>507</v>
+      </c>
+      <c r="J62" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" t="s">
+        <v>509</v>
+      </c>
+      <c r="L62" t="s">
+        <v>510</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>511</v>
+      </c>
+      <c r="O62" t="s">
+        <v>133</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>514</v>
+      </c>
+      <c r="J63" t="s">
+        <v>515</v>
+      </c>
+      <c r="K63" t="s">
+        <v>516</v>
+      </c>
+      <c r="L63" t="s">
+        <v>517</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>518</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>523</v>
+      </c>
+      <c r="X64" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>133</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>548</v>
+      </c>
+      <c r="X68" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>556</v>
+      </c>
+      <c r="O69" t="s">
+        <v>108</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>557</v>
+      </c>
+      <c r="X69" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>560</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>561</v>
+      </c>
+      <c r="J70" t="s">
+        <v>562</v>
+      </c>
+      <c r="K70" t="s">
+        <v>563</v>
+      </c>
+      <c r="L70" t="s">
+        <v>564</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>556</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>565</v>
+      </c>
+      <c r="X70" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>568</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>569</v>
+      </c>
+      <c r="J71" t="s">
+        <v>570</v>
+      </c>
+      <c r="K71" t="s">
+        <v>571</v>
+      </c>
+      <c r="L71" t="s">
+        <v>572</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>573</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>574</v>
+      </c>
+      <c r="X71" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>577</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>578</v>
+      </c>
+      <c r="J72" t="s">
+        <v>579</v>
+      </c>
+      <c r="K72" t="s">
+        <v>580</v>
+      </c>
+      <c r="L72" t="s">
+        <v>581</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>582</v>
+      </c>
+      <c r="X72" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>585</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>586</v>
+      </c>
+      <c r="J73" t="s">
+        <v>587</v>
+      </c>
+      <c r="K73" t="s">
+        <v>588</v>
+      </c>
+      <c r="L73" t="s">
+        <v>589</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>590</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>591</v>
+      </c>
+      <c r="X73" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>594</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>595</v>
+      </c>
+      <c r="J74" t="s">
+        <v>596</v>
+      </c>
+      <c r="K74" t="s">
+        <v>597</v>
+      </c>
+      <c r="L74" t="s">
+        <v>598</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>599</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>600</v>
+      </c>
+      <c r="X74" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>603</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>604</v>
+      </c>
+      <c r="J75" t="s">
+        <v>605</v>
+      </c>
+      <c r="K75" t="s">
+        <v>606</v>
+      </c>
+      <c r="L75" t="s">
+        <v>607</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>608</v>
+      </c>
+      <c r="X75" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>611</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>612</v>
+      </c>
+      <c r="J76" t="s">
+        <v>613</v>
+      </c>
+      <c r="K76" t="s">
+        <v>614</v>
+      </c>
+      <c r="L76" t="s">
+        <v>615</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>616</v>
+      </c>
+      <c r="X76" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>619</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>620</v>
+      </c>
+      <c r="J77" t="s">
+        <v>621</v>
+      </c>
+      <c r="K77" t="s">
+        <v>622</v>
+      </c>
+      <c r="L77" t="s">
+        <v>623</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>624</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>625</v>
+      </c>
+      <c r="X77" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>628</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>629</v>
+      </c>
+      <c r="J78" t="s">
+        <v>630</v>
+      </c>
+      <c r="K78" t="s">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s">
+        <v>108</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>633</v>
+      </c>
+      <c r="X78" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>636</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>637</v>
+      </c>
+      <c r="J79" t="s">
+        <v>630</v>
+      </c>
+      <c r="K79" t="s">
+        <v>638</v>
+      </c>
+      <c r="L79" t="s">
+        <v>639</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>640</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>633</v>
+      </c>
+      <c r="X79" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>642</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>643</v>
+      </c>
+      <c r="J80" t="s">
+        <v>644</v>
+      </c>
+      <c r="K80" t="s">
+        <v>645</v>
+      </c>
+      <c r="L80" t="s">
+        <v>646</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>624</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>647</v>
+      </c>
+      <c r="X80" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>650</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>651</v>
+      </c>
+      <c r="J81" t="s">
+        <v>652</v>
+      </c>
+      <c r="K81" t="s">
+        <v>653</v>
+      </c>
+      <c r="L81" t="s">
+        <v>654</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>655</v>
+      </c>
+      <c r="O81" t="s">
+        <v>108</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>656</v>
+      </c>
+      <c r="X81" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>659</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>660</v>
+      </c>
+      <c r="J82" t="s">
+        <v>661</v>
+      </c>
+      <c r="K82" t="s">
+        <v>662</v>
+      </c>
+      <c r="L82" t="s">
+        <v>663</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>664</v>
+      </c>
+      <c r="X82" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>667</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>668</v>
+      </c>
+      <c r="J83" t="s">
+        <v>669</v>
+      </c>
+      <c r="K83" t="s">
+        <v>670</v>
+      </c>
+      <c r="L83" t="s">
+        <v>671</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>672</v>
+      </c>
+      <c r="O83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>673</v>
+      </c>
+      <c r="X83" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>676</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>677</v>
+      </c>
+      <c r="J84" t="s">
+        <v>678</v>
+      </c>
+      <c r="K84" t="s">
+        <v>679</v>
+      </c>
+      <c r="L84" t="s">
+        <v>680</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>681</v>
+      </c>
+      <c r="X84" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>684</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>685</v>
+      </c>
+      <c r="J85" t="s">
+        <v>686</v>
+      </c>
+      <c r="K85" t="s">
+        <v>687</v>
+      </c>
+      <c r="L85" t="s">
+        <v>688</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>590</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>689</v>
+      </c>
+      <c r="X85" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>692</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>693</v>
+      </c>
+      <c r="J86" t="s">
+        <v>694</v>
+      </c>
+      <c r="K86" t="s">
+        <v>695</v>
+      </c>
+      <c r="L86" t="s">
+        <v>696</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>697</v>
+      </c>
+      <c r="O86" t="s">
+        <v>108</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>698</v>
+      </c>
+      <c r="X86" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>701</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>702</v>
+      </c>
+      <c r="J87" t="s">
+        <v>703</v>
+      </c>
+      <c r="K87" t="s">
+        <v>704</v>
+      </c>
+      <c r="L87" t="s">
+        <v>705</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>706</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>707</v>
+      </c>
+      <c r="X87" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>710</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>711</v>
+      </c>
+      <c r="J88" t="s">
+        <v>712</v>
+      </c>
+      <c r="K88" t="s">
+        <v>713</v>
+      </c>
+      <c r="L88" t="s">
+        <v>714</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>715</v>
+      </c>
+      <c r="X88" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>718</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>719</v>
+      </c>
+      <c r="J89" t="s">
+        <v>720</v>
+      </c>
+      <c r="K89" t="s">
+        <v>721</v>
+      </c>
+      <c r="L89" t="s">
+        <v>722</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>723</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>724</v>
+      </c>
+      <c r="X89" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>727</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>728</v>
+      </c>
+      <c r="J90" t="s">
+        <v>729</v>
+      </c>
+      <c r="K90" t="s">
+        <v>730</v>
+      </c>
+      <c r="L90" t="s">
+        <v>731</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>732</v>
+      </c>
+      <c r="O90" t="s">
+        <v>133</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>734</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>735</v>
+      </c>
+      <c r="J91" t="s">
+        <v>736</v>
+      </c>
+      <c r="K91" t="s">
+        <v>737</v>
+      </c>
+      <c r="L91" t="s">
+        <v>738</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>739</v>
+      </c>
+      <c r="O91" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>741</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>742</v>
+      </c>
+      <c r="J92" t="s">
+        <v>743</v>
+      </c>
+      <c r="K92" t="s">
+        <v>744</v>
+      </c>
+      <c r="L92" t="s">
+        <v>745</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>746</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>747</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>748</v>
+      </c>
+      <c r="J93" t="s">
+        <v>749</v>
+      </c>
+      <c r="K93" t="s">
+        <v>750</v>
+      </c>
+      <c r="L93" t="s">
+        <v>751</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34141</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>753</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>754</v>
+      </c>
+      <c r="J94" t="s">
+        <v>755</v>
+      </c>
+      <c r="K94" t="s">
+        <v>756</v>
+      </c>
+      <c r="L94" t="s">
+        <v>757</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>758</v>
+      </c>
+      <c r="O94" t="s">
+        <v>133</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
